--- a/public/formatos_academicos/F-DA-GA-06 Control de Asesorías.xlsx
+++ b/public/formatos_academicos/F-DA-GA-06 Control de Asesorías.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Graciela Isolina\Desktop\Gestión Académica 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TI-UTM\public\formatos_academicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04778427-5DEE-4C15-97D9-0DA91EFF1172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECCCDC1-8B3C-407E-AED7-122E8B4644E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="933" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" tabRatio="933" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asesoría" sheetId="4" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>TI</t>
   </si>
   <si>
-    <t>Nombre y Firma de la o del Profesor de Asignatura</t>
-  </si>
-  <si>
     <t>Sello de Recibido de la Subdirección de Carrera</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>F-DC-GA-06</t>
+  </si>
+  <si>
+    <t>Nombre y Firma del Profesor</t>
   </si>
 </sst>
 </file>
@@ -554,6 +554,108 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -561,108 +663,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -715,13 +715,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>53340</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>679450</xdr:rowOff>
+          <xdr:rowOff>678180</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1034,1163 +1034,1163 @@
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23:P23"/>
+      <selection activeCell="A26" sqref="A26:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="1" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="0.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.36328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="1.08984375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="34.54296875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="1.26953125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.453125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="28.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.21875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="34.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.21875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="28.77734375" style="1" customWidth="1"/>
     <col min="19" max="19" width="1" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.26953125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.1796875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="1.453125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.54296875" style="1" customWidth="1"/>
-    <col min="24" max="262" width="11.453125" style="1"/>
-    <col min="263" max="263" width="5.1796875" style="1" customWidth="1"/>
-    <col min="264" max="264" width="4.54296875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.21875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="1.44140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5546875" style="1" customWidth="1"/>
+    <col min="24" max="262" width="11.44140625" style="1"/>
+    <col min="263" max="263" width="5.21875" style="1" customWidth="1"/>
+    <col min="264" max="264" width="4.5546875" style="1" customWidth="1"/>
     <col min="265" max="265" width="1" style="1" customWidth="1"/>
-    <col min="266" max="266" width="4.26953125" style="1" customWidth="1"/>
-    <col min="267" max="267" width="8.453125" style="1" customWidth="1"/>
+    <col min="266" max="266" width="4.21875" style="1" customWidth="1"/>
+    <col min="267" max="267" width="8.44140625" style="1" customWidth="1"/>
     <col min="268" max="268" width="1" style="1" customWidth="1"/>
-    <col min="269" max="269" width="4.26953125" style="1" customWidth="1"/>
-    <col min="270" max="270" width="7.453125" style="1" customWidth="1"/>
+    <col min="269" max="269" width="4.21875" style="1" customWidth="1"/>
+    <col min="270" max="270" width="7.44140625" style="1" customWidth="1"/>
     <col min="271" max="271" width="1" style="1" customWidth="1"/>
-    <col min="272" max="273" width="4.26953125" style="1" customWidth="1"/>
-    <col min="274" max="274" width="7.7265625" style="1" customWidth="1"/>
-    <col min="275" max="275" width="10.453125" style="1" customWidth="1"/>
-    <col min="276" max="276" width="12.7265625" style="1" customWidth="1"/>
-    <col min="277" max="277" width="22.26953125" style="1" customWidth="1"/>
-    <col min="278" max="278" width="0.7265625" style="1" customWidth="1"/>
-    <col min="279" max="279" width="4.1796875" style="1" customWidth="1"/>
-    <col min="280" max="518" width="11.453125" style="1"/>
-    <col min="519" max="519" width="5.1796875" style="1" customWidth="1"/>
-    <col min="520" max="520" width="4.54296875" style="1" customWidth="1"/>
+    <col min="272" max="273" width="4.21875" style="1" customWidth="1"/>
+    <col min="274" max="274" width="7.77734375" style="1" customWidth="1"/>
+    <col min="275" max="275" width="10.44140625" style="1" customWidth="1"/>
+    <col min="276" max="276" width="12.77734375" style="1" customWidth="1"/>
+    <col min="277" max="277" width="22.21875" style="1" customWidth="1"/>
+    <col min="278" max="278" width="0.77734375" style="1" customWidth="1"/>
+    <col min="279" max="279" width="4.21875" style="1" customWidth="1"/>
+    <col min="280" max="518" width="11.44140625" style="1"/>
+    <col min="519" max="519" width="5.21875" style="1" customWidth="1"/>
+    <col min="520" max="520" width="4.5546875" style="1" customWidth="1"/>
     <col min="521" max="521" width="1" style="1" customWidth="1"/>
-    <col min="522" max="522" width="4.26953125" style="1" customWidth="1"/>
-    <col min="523" max="523" width="8.453125" style="1" customWidth="1"/>
+    <col min="522" max="522" width="4.21875" style="1" customWidth="1"/>
+    <col min="523" max="523" width="8.44140625" style="1" customWidth="1"/>
     <col min="524" max="524" width="1" style="1" customWidth="1"/>
-    <col min="525" max="525" width="4.26953125" style="1" customWidth="1"/>
-    <col min="526" max="526" width="7.453125" style="1" customWidth="1"/>
+    <col min="525" max="525" width="4.21875" style="1" customWidth="1"/>
+    <col min="526" max="526" width="7.44140625" style="1" customWidth="1"/>
     <col min="527" max="527" width="1" style="1" customWidth="1"/>
-    <col min="528" max="529" width="4.26953125" style="1" customWidth="1"/>
-    <col min="530" max="530" width="7.7265625" style="1" customWidth="1"/>
-    <col min="531" max="531" width="10.453125" style="1" customWidth="1"/>
-    <col min="532" max="532" width="12.7265625" style="1" customWidth="1"/>
-    <col min="533" max="533" width="22.26953125" style="1" customWidth="1"/>
-    <col min="534" max="534" width="0.7265625" style="1" customWidth="1"/>
-    <col min="535" max="535" width="4.1796875" style="1" customWidth="1"/>
-    <col min="536" max="774" width="11.453125" style="1"/>
-    <col min="775" max="775" width="5.1796875" style="1" customWidth="1"/>
-    <col min="776" max="776" width="4.54296875" style="1" customWidth="1"/>
+    <col min="528" max="529" width="4.21875" style="1" customWidth="1"/>
+    <col min="530" max="530" width="7.77734375" style="1" customWidth="1"/>
+    <col min="531" max="531" width="10.44140625" style="1" customWidth="1"/>
+    <col min="532" max="532" width="12.77734375" style="1" customWidth="1"/>
+    <col min="533" max="533" width="22.21875" style="1" customWidth="1"/>
+    <col min="534" max="534" width="0.77734375" style="1" customWidth="1"/>
+    <col min="535" max="535" width="4.21875" style="1" customWidth="1"/>
+    <col min="536" max="774" width="11.44140625" style="1"/>
+    <col min="775" max="775" width="5.21875" style="1" customWidth="1"/>
+    <col min="776" max="776" width="4.5546875" style="1" customWidth="1"/>
     <col min="777" max="777" width="1" style="1" customWidth="1"/>
-    <col min="778" max="778" width="4.26953125" style="1" customWidth="1"/>
-    <col min="779" max="779" width="8.453125" style="1" customWidth="1"/>
+    <col min="778" max="778" width="4.21875" style="1" customWidth="1"/>
+    <col min="779" max="779" width="8.44140625" style="1" customWidth="1"/>
     <col min="780" max="780" width="1" style="1" customWidth="1"/>
-    <col min="781" max="781" width="4.26953125" style="1" customWidth="1"/>
-    <col min="782" max="782" width="7.453125" style="1" customWidth="1"/>
+    <col min="781" max="781" width="4.21875" style="1" customWidth="1"/>
+    <col min="782" max="782" width="7.44140625" style="1" customWidth="1"/>
     <col min="783" max="783" width="1" style="1" customWidth="1"/>
-    <col min="784" max="785" width="4.26953125" style="1" customWidth="1"/>
-    <col min="786" max="786" width="7.7265625" style="1" customWidth="1"/>
-    <col min="787" max="787" width="10.453125" style="1" customWidth="1"/>
-    <col min="788" max="788" width="12.7265625" style="1" customWidth="1"/>
-    <col min="789" max="789" width="22.26953125" style="1" customWidth="1"/>
-    <col min="790" max="790" width="0.7265625" style="1" customWidth="1"/>
-    <col min="791" max="791" width="4.1796875" style="1" customWidth="1"/>
-    <col min="792" max="1030" width="11.453125" style="1"/>
-    <col min="1031" max="1031" width="5.1796875" style="1" customWidth="1"/>
-    <col min="1032" max="1032" width="4.54296875" style="1" customWidth="1"/>
+    <col min="784" max="785" width="4.21875" style="1" customWidth="1"/>
+    <col min="786" max="786" width="7.77734375" style="1" customWidth="1"/>
+    <col min="787" max="787" width="10.44140625" style="1" customWidth="1"/>
+    <col min="788" max="788" width="12.77734375" style="1" customWidth="1"/>
+    <col min="789" max="789" width="22.21875" style="1" customWidth="1"/>
+    <col min="790" max="790" width="0.77734375" style="1" customWidth="1"/>
+    <col min="791" max="791" width="4.21875" style="1" customWidth="1"/>
+    <col min="792" max="1030" width="11.44140625" style="1"/>
+    <col min="1031" max="1031" width="5.21875" style="1" customWidth="1"/>
+    <col min="1032" max="1032" width="4.5546875" style="1" customWidth="1"/>
     <col min="1033" max="1033" width="1" style="1" customWidth="1"/>
-    <col min="1034" max="1034" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1035" max="1035" width="8.453125" style="1" customWidth="1"/>
+    <col min="1034" max="1034" width="4.21875" style="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.44140625" style="1" customWidth="1"/>
     <col min="1036" max="1036" width="1" style="1" customWidth="1"/>
-    <col min="1037" max="1037" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1038" max="1038" width="7.453125" style="1" customWidth="1"/>
+    <col min="1037" max="1037" width="4.21875" style="1" customWidth="1"/>
+    <col min="1038" max="1038" width="7.44140625" style="1" customWidth="1"/>
     <col min="1039" max="1039" width="1" style="1" customWidth="1"/>
-    <col min="1040" max="1041" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1042" max="1042" width="7.7265625" style="1" customWidth="1"/>
-    <col min="1043" max="1043" width="10.453125" style="1" customWidth="1"/>
-    <col min="1044" max="1044" width="12.7265625" style="1" customWidth="1"/>
-    <col min="1045" max="1045" width="22.26953125" style="1" customWidth="1"/>
-    <col min="1046" max="1046" width="0.7265625" style="1" customWidth="1"/>
-    <col min="1047" max="1047" width="4.1796875" style="1" customWidth="1"/>
-    <col min="1048" max="1286" width="11.453125" style="1"/>
-    <col min="1287" max="1287" width="5.1796875" style="1" customWidth="1"/>
-    <col min="1288" max="1288" width="4.54296875" style="1" customWidth="1"/>
+    <col min="1040" max="1041" width="4.21875" style="1" customWidth="1"/>
+    <col min="1042" max="1042" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1043" max="1043" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1044" max="1044" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1045" max="1045" width="22.21875" style="1" customWidth="1"/>
+    <col min="1046" max="1046" width="0.77734375" style="1" customWidth="1"/>
+    <col min="1047" max="1047" width="4.21875" style="1" customWidth="1"/>
+    <col min="1048" max="1286" width="11.44140625" style="1"/>
+    <col min="1287" max="1287" width="5.21875" style="1" customWidth="1"/>
+    <col min="1288" max="1288" width="4.5546875" style="1" customWidth="1"/>
     <col min="1289" max="1289" width="1" style="1" customWidth="1"/>
-    <col min="1290" max="1290" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1291" max="1291" width="8.453125" style="1" customWidth="1"/>
+    <col min="1290" max="1290" width="4.21875" style="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.44140625" style="1" customWidth="1"/>
     <col min="1292" max="1292" width="1" style="1" customWidth="1"/>
-    <col min="1293" max="1293" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1294" max="1294" width="7.453125" style="1" customWidth="1"/>
+    <col min="1293" max="1293" width="4.21875" style="1" customWidth="1"/>
+    <col min="1294" max="1294" width="7.44140625" style="1" customWidth="1"/>
     <col min="1295" max="1295" width="1" style="1" customWidth="1"/>
-    <col min="1296" max="1297" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1298" max="1298" width="7.7265625" style="1" customWidth="1"/>
-    <col min="1299" max="1299" width="10.453125" style="1" customWidth="1"/>
-    <col min="1300" max="1300" width="12.7265625" style="1" customWidth="1"/>
-    <col min="1301" max="1301" width="22.26953125" style="1" customWidth="1"/>
-    <col min="1302" max="1302" width="0.7265625" style="1" customWidth="1"/>
-    <col min="1303" max="1303" width="4.1796875" style="1" customWidth="1"/>
-    <col min="1304" max="1542" width="11.453125" style="1"/>
-    <col min="1543" max="1543" width="5.1796875" style="1" customWidth="1"/>
-    <col min="1544" max="1544" width="4.54296875" style="1" customWidth="1"/>
+    <col min="1296" max="1297" width="4.21875" style="1" customWidth="1"/>
+    <col min="1298" max="1298" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1299" max="1299" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1300" max="1300" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1301" max="1301" width="22.21875" style="1" customWidth="1"/>
+    <col min="1302" max="1302" width="0.77734375" style="1" customWidth="1"/>
+    <col min="1303" max="1303" width="4.21875" style="1" customWidth="1"/>
+    <col min="1304" max="1542" width="11.44140625" style="1"/>
+    <col min="1543" max="1543" width="5.21875" style="1" customWidth="1"/>
+    <col min="1544" max="1544" width="4.5546875" style="1" customWidth="1"/>
     <col min="1545" max="1545" width="1" style="1" customWidth="1"/>
-    <col min="1546" max="1546" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1547" max="1547" width="8.453125" style="1" customWidth="1"/>
+    <col min="1546" max="1546" width="4.21875" style="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.44140625" style="1" customWidth="1"/>
     <col min="1548" max="1548" width="1" style="1" customWidth="1"/>
-    <col min="1549" max="1549" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1550" max="1550" width="7.453125" style="1" customWidth="1"/>
+    <col min="1549" max="1549" width="4.21875" style="1" customWidth="1"/>
+    <col min="1550" max="1550" width="7.44140625" style="1" customWidth="1"/>
     <col min="1551" max="1551" width="1" style="1" customWidth="1"/>
-    <col min="1552" max="1553" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1554" max="1554" width="7.7265625" style="1" customWidth="1"/>
-    <col min="1555" max="1555" width="10.453125" style="1" customWidth="1"/>
-    <col min="1556" max="1556" width="12.7265625" style="1" customWidth="1"/>
-    <col min="1557" max="1557" width="22.26953125" style="1" customWidth="1"/>
-    <col min="1558" max="1558" width="0.7265625" style="1" customWidth="1"/>
-    <col min="1559" max="1559" width="4.1796875" style="1" customWidth="1"/>
-    <col min="1560" max="1798" width="11.453125" style="1"/>
-    <col min="1799" max="1799" width="5.1796875" style="1" customWidth="1"/>
-    <col min="1800" max="1800" width="4.54296875" style="1" customWidth="1"/>
+    <col min="1552" max="1553" width="4.21875" style="1" customWidth="1"/>
+    <col min="1554" max="1554" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1555" max="1555" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1556" max="1556" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1557" max="1557" width="22.21875" style="1" customWidth="1"/>
+    <col min="1558" max="1558" width="0.77734375" style="1" customWidth="1"/>
+    <col min="1559" max="1559" width="4.21875" style="1" customWidth="1"/>
+    <col min="1560" max="1798" width="11.44140625" style="1"/>
+    <col min="1799" max="1799" width="5.21875" style="1" customWidth="1"/>
+    <col min="1800" max="1800" width="4.5546875" style="1" customWidth="1"/>
     <col min="1801" max="1801" width="1" style="1" customWidth="1"/>
-    <col min="1802" max="1802" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1803" max="1803" width="8.453125" style="1" customWidth="1"/>
+    <col min="1802" max="1802" width="4.21875" style="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.44140625" style="1" customWidth="1"/>
     <col min="1804" max="1804" width="1" style="1" customWidth="1"/>
-    <col min="1805" max="1805" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1806" max="1806" width="7.453125" style="1" customWidth="1"/>
+    <col min="1805" max="1805" width="4.21875" style="1" customWidth="1"/>
+    <col min="1806" max="1806" width="7.44140625" style="1" customWidth="1"/>
     <col min="1807" max="1807" width="1" style="1" customWidth="1"/>
-    <col min="1808" max="1809" width="4.26953125" style="1" customWidth="1"/>
-    <col min="1810" max="1810" width="7.7265625" style="1" customWidth="1"/>
-    <col min="1811" max="1811" width="10.453125" style="1" customWidth="1"/>
-    <col min="1812" max="1812" width="12.7265625" style="1" customWidth="1"/>
-    <col min="1813" max="1813" width="22.26953125" style="1" customWidth="1"/>
-    <col min="1814" max="1814" width="0.7265625" style="1" customWidth="1"/>
-    <col min="1815" max="1815" width="4.1796875" style="1" customWidth="1"/>
-    <col min="1816" max="2054" width="11.453125" style="1"/>
-    <col min="2055" max="2055" width="5.1796875" style="1" customWidth="1"/>
-    <col min="2056" max="2056" width="4.54296875" style="1" customWidth="1"/>
+    <col min="1808" max="1809" width="4.21875" style="1" customWidth="1"/>
+    <col min="1810" max="1810" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1811" max="1811" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1812" max="1812" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1813" max="1813" width="22.21875" style="1" customWidth="1"/>
+    <col min="1814" max="1814" width="0.77734375" style="1" customWidth="1"/>
+    <col min="1815" max="1815" width="4.21875" style="1" customWidth="1"/>
+    <col min="1816" max="2054" width="11.44140625" style="1"/>
+    <col min="2055" max="2055" width="5.21875" style="1" customWidth="1"/>
+    <col min="2056" max="2056" width="4.5546875" style="1" customWidth="1"/>
     <col min="2057" max="2057" width="1" style="1" customWidth="1"/>
-    <col min="2058" max="2058" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2059" max="2059" width="8.453125" style="1" customWidth="1"/>
+    <col min="2058" max="2058" width="4.21875" style="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.44140625" style="1" customWidth="1"/>
     <col min="2060" max="2060" width="1" style="1" customWidth="1"/>
-    <col min="2061" max="2061" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2062" max="2062" width="7.453125" style="1" customWidth="1"/>
+    <col min="2061" max="2061" width="4.21875" style="1" customWidth="1"/>
+    <col min="2062" max="2062" width="7.44140625" style="1" customWidth="1"/>
     <col min="2063" max="2063" width="1" style="1" customWidth="1"/>
-    <col min="2064" max="2065" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2066" max="2066" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2067" max="2067" width="10.453125" style="1" customWidth="1"/>
-    <col min="2068" max="2068" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2069" max="2069" width="22.26953125" style="1" customWidth="1"/>
-    <col min="2070" max="2070" width="0.7265625" style="1" customWidth="1"/>
-    <col min="2071" max="2071" width="4.1796875" style="1" customWidth="1"/>
-    <col min="2072" max="2310" width="11.453125" style="1"/>
-    <col min="2311" max="2311" width="5.1796875" style="1" customWidth="1"/>
-    <col min="2312" max="2312" width="4.54296875" style="1" customWidth="1"/>
+    <col min="2064" max="2065" width="4.21875" style="1" customWidth="1"/>
+    <col min="2066" max="2066" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2067" max="2067" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2068" max="2068" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2069" max="2069" width="22.21875" style="1" customWidth="1"/>
+    <col min="2070" max="2070" width="0.77734375" style="1" customWidth="1"/>
+    <col min="2071" max="2071" width="4.21875" style="1" customWidth="1"/>
+    <col min="2072" max="2310" width="11.44140625" style="1"/>
+    <col min="2311" max="2311" width="5.21875" style="1" customWidth="1"/>
+    <col min="2312" max="2312" width="4.5546875" style="1" customWidth="1"/>
     <col min="2313" max="2313" width="1" style="1" customWidth="1"/>
-    <col min="2314" max="2314" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2315" max="2315" width="8.453125" style="1" customWidth="1"/>
+    <col min="2314" max="2314" width="4.21875" style="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.44140625" style="1" customWidth="1"/>
     <col min="2316" max="2316" width="1" style="1" customWidth="1"/>
-    <col min="2317" max="2317" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2318" max="2318" width="7.453125" style="1" customWidth="1"/>
+    <col min="2317" max="2317" width="4.21875" style="1" customWidth="1"/>
+    <col min="2318" max="2318" width="7.44140625" style="1" customWidth="1"/>
     <col min="2319" max="2319" width="1" style="1" customWidth="1"/>
-    <col min="2320" max="2321" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2322" max="2322" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2323" max="2323" width="10.453125" style="1" customWidth="1"/>
-    <col min="2324" max="2324" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2325" max="2325" width="22.26953125" style="1" customWidth="1"/>
-    <col min="2326" max="2326" width="0.7265625" style="1" customWidth="1"/>
-    <col min="2327" max="2327" width="4.1796875" style="1" customWidth="1"/>
-    <col min="2328" max="2566" width="11.453125" style="1"/>
-    <col min="2567" max="2567" width="5.1796875" style="1" customWidth="1"/>
-    <col min="2568" max="2568" width="4.54296875" style="1" customWidth="1"/>
+    <col min="2320" max="2321" width="4.21875" style="1" customWidth="1"/>
+    <col min="2322" max="2322" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2323" max="2323" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2324" max="2324" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2325" max="2325" width="22.21875" style="1" customWidth="1"/>
+    <col min="2326" max="2326" width="0.77734375" style="1" customWidth="1"/>
+    <col min="2327" max="2327" width="4.21875" style="1" customWidth="1"/>
+    <col min="2328" max="2566" width="11.44140625" style="1"/>
+    <col min="2567" max="2567" width="5.21875" style="1" customWidth="1"/>
+    <col min="2568" max="2568" width="4.5546875" style="1" customWidth="1"/>
     <col min="2569" max="2569" width="1" style="1" customWidth="1"/>
-    <col min="2570" max="2570" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2571" max="2571" width="8.453125" style="1" customWidth="1"/>
+    <col min="2570" max="2570" width="4.21875" style="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.44140625" style="1" customWidth="1"/>
     <col min="2572" max="2572" width="1" style="1" customWidth="1"/>
-    <col min="2573" max="2573" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2574" max="2574" width="7.453125" style="1" customWidth="1"/>
+    <col min="2573" max="2573" width="4.21875" style="1" customWidth="1"/>
+    <col min="2574" max="2574" width="7.44140625" style="1" customWidth="1"/>
     <col min="2575" max="2575" width="1" style="1" customWidth="1"/>
-    <col min="2576" max="2577" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2578" max="2578" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2579" max="2579" width="10.453125" style="1" customWidth="1"/>
-    <col min="2580" max="2580" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2581" max="2581" width="22.26953125" style="1" customWidth="1"/>
-    <col min="2582" max="2582" width="0.7265625" style="1" customWidth="1"/>
-    <col min="2583" max="2583" width="4.1796875" style="1" customWidth="1"/>
-    <col min="2584" max="2822" width="11.453125" style="1"/>
-    <col min="2823" max="2823" width="5.1796875" style="1" customWidth="1"/>
-    <col min="2824" max="2824" width="4.54296875" style="1" customWidth="1"/>
+    <col min="2576" max="2577" width="4.21875" style="1" customWidth="1"/>
+    <col min="2578" max="2578" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2579" max="2579" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2580" max="2580" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2581" max="2581" width="22.21875" style="1" customWidth="1"/>
+    <col min="2582" max="2582" width="0.77734375" style="1" customWidth="1"/>
+    <col min="2583" max="2583" width="4.21875" style="1" customWidth="1"/>
+    <col min="2584" max="2822" width="11.44140625" style="1"/>
+    <col min="2823" max="2823" width="5.21875" style="1" customWidth="1"/>
+    <col min="2824" max="2824" width="4.5546875" style="1" customWidth="1"/>
     <col min="2825" max="2825" width="1" style="1" customWidth="1"/>
-    <col min="2826" max="2826" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2827" max="2827" width="8.453125" style="1" customWidth="1"/>
+    <col min="2826" max="2826" width="4.21875" style="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.44140625" style="1" customWidth="1"/>
     <col min="2828" max="2828" width="1" style="1" customWidth="1"/>
-    <col min="2829" max="2829" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2830" max="2830" width="7.453125" style="1" customWidth="1"/>
+    <col min="2829" max="2829" width="4.21875" style="1" customWidth="1"/>
+    <col min="2830" max="2830" width="7.44140625" style="1" customWidth="1"/>
     <col min="2831" max="2831" width="1" style="1" customWidth="1"/>
-    <col min="2832" max="2833" width="4.26953125" style="1" customWidth="1"/>
-    <col min="2834" max="2834" width="7.7265625" style="1" customWidth="1"/>
-    <col min="2835" max="2835" width="10.453125" style="1" customWidth="1"/>
-    <col min="2836" max="2836" width="12.7265625" style="1" customWidth="1"/>
-    <col min="2837" max="2837" width="22.26953125" style="1" customWidth="1"/>
-    <col min="2838" max="2838" width="0.7265625" style="1" customWidth="1"/>
-    <col min="2839" max="2839" width="4.1796875" style="1" customWidth="1"/>
-    <col min="2840" max="3078" width="11.453125" style="1"/>
-    <col min="3079" max="3079" width="5.1796875" style="1" customWidth="1"/>
-    <col min="3080" max="3080" width="4.54296875" style="1" customWidth="1"/>
+    <col min="2832" max="2833" width="4.21875" style="1" customWidth="1"/>
+    <col min="2834" max="2834" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2835" max="2835" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2836" max="2836" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2837" max="2837" width="22.21875" style="1" customWidth="1"/>
+    <col min="2838" max="2838" width="0.77734375" style="1" customWidth="1"/>
+    <col min="2839" max="2839" width="4.21875" style="1" customWidth="1"/>
+    <col min="2840" max="3078" width="11.44140625" style="1"/>
+    <col min="3079" max="3079" width="5.21875" style="1" customWidth="1"/>
+    <col min="3080" max="3080" width="4.5546875" style="1" customWidth="1"/>
     <col min="3081" max="3081" width="1" style="1" customWidth="1"/>
-    <col min="3082" max="3082" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3083" max="3083" width="8.453125" style="1" customWidth="1"/>
+    <col min="3082" max="3082" width="4.21875" style="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.44140625" style="1" customWidth="1"/>
     <col min="3084" max="3084" width="1" style="1" customWidth="1"/>
-    <col min="3085" max="3085" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3086" max="3086" width="7.453125" style="1" customWidth="1"/>
+    <col min="3085" max="3085" width="4.21875" style="1" customWidth="1"/>
+    <col min="3086" max="3086" width="7.44140625" style="1" customWidth="1"/>
     <col min="3087" max="3087" width="1" style="1" customWidth="1"/>
-    <col min="3088" max="3089" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3090" max="3090" width="7.7265625" style="1" customWidth="1"/>
-    <col min="3091" max="3091" width="10.453125" style="1" customWidth="1"/>
-    <col min="3092" max="3092" width="12.7265625" style="1" customWidth="1"/>
-    <col min="3093" max="3093" width="22.26953125" style="1" customWidth="1"/>
-    <col min="3094" max="3094" width="0.7265625" style="1" customWidth="1"/>
-    <col min="3095" max="3095" width="4.1796875" style="1" customWidth="1"/>
-    <col min="3096" max="3334" width="11.453125" style="1"/>
-    <col min="3335" max="3335" width="5.1796875" style="1" customWidth="1"/>
-    <col min="3336" max="3336" width="4.54296875" style="1" customWidth="1"/>
+    <col min="3088" max="3089" width="4.21875" style="1" customWidth="1"/>
+    <col min="3090" max="3090" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3091" max="3091" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3092" max="3092" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3093" max="3093" width="22.21875" style="1" customWidth="1"/>
+    <col min="3094" max="3094" width="0.77734375" style="1" customWidth="1"/>
+    <col min="3095" max="3095" width="4.21875" style="1" customWidth="1"/>
+    <col min="3096" max="3334" width="11.44140625" style="1"/>
+    <col min="3335" max="3335" width="5.21875" style="1" customWidth="1"/>
+    <col min="3336" max="3336" width="4.5546875" style="1" customWidth="1"/>
     <col min="3337" max="3337" width="1" style="1" customWidth="1"/>
-    <col min="3338" max="3338" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3339" max="3339" width="8.453125" style="1" customWidth="1"/>
+    <col min="3338" max="3338" width="4.21875" style="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.44140625" style="1" customWidth="1"/>
     <col min="3340" max="3340" width="1" style="1" customWidth="1"/>
-    <col min="3341" max="3341" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3342" max="3342" width="7.453125" style="1" customWidth="1"/>
+    <col min="3341" max="3341" width="4.21875" style="1" customWidth="1"/>
+    <col min="3342" max="3342" width="7.44140625" style="1" customWidth="1"/>
     <col min="3343" max="3343" width="1" style="1" customWidth="1"/>
-    <col min="3344" max="3345" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3346" max="3346" width="7.7265625" style="1" customWidth="1"/>
-    <col min="3347" max="3347" width="10.453125" style="1" customWidth="1"/>
-    <col min="3348" max="3348" width="12.7265625" style="1" customWidth="1"/>
-    <col min="3349" max="3349" width="22.26953125" style="1" customWidth="1"/>
-    <col min="3350" max="3350" width="0.7265625" style="1" customWidth="1"/>
-    <col min="3351" max="3351" width="4.1796875" style="1" customWidth="1"/>
-    <col min="3352" max="3590" width="11.453125" style="1"/>
-    <col min="3591" max="3591" width="5.1796875" style="1" customWidth="1"/>
-    <col min="3592" max="3592" width="4.54296875" style="1" customWidth="1"/>
+    <col min="3344" max="3345" width="4.21875" style="1" customWidth="1"/>
+    <col min="3346" max="3346" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3347" max="3347" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3348" max="3348" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3349" max="3349" width="22.21875" style="1" customWidth="1"/>
+    <col min="3350" max="3350" width="0.77734375" style="1" customWidth="1"/>
+    <col min="3351" max="3351" width="4.21875" style="1" customWidth="1"/>
+    <col min="3352" max="3590" width="11.44140625" style="1"/>
+    <col min="3591" max="3591" width="5.21875" style="1" customWidth="1"/>
+    <col min="3592" max="3592" width="4.5546875" style="1" customWidth="1"/>
     <col min="3593" max="3593" width="1" style="1" customWidth="1"/>
-    <col min="3594" max="3594" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3595" max="3595" width="8.453125" style="1" customWidth="1"/>
+    <col min="3594" max="3594" width="4.21875" style="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.44140625" style="1" customWidth="1"/>
     <col min="3596" max="3596" width="1" style="1" customWidth="1"/>
-    <col min="3597" max="3597" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3598" max="3598" width="7.453125" style="1" customWidth="1"/>
+    <col min="3597" max="3597" width="4.21875" style="1" customWidth="1"/>
+    <col min="3598" max="3598" width="7.44140625" style="1" customWidth="1"/>
     <col min="3599" max="3599" width="1" style="1" customWidth="1"/>
-    <col min="3600" max="3601" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3602" max="3602" width="7.7265625" style="1" customWidth="1"/>
-    <col min="3603" max="3603" width="10.453125" style="1" customWidth="1"/>
-    <col min="3604" max="3604" width="12.7265625" style="1" customWidth="1"/>
-    <col min="3605" max="3605" width="22.26953125" style="1" customWidth="1"/>
-    <col min="3606" max="3606" width="0.7265625" style="1" customWidth="1"/>
-    <col min="3607" max="3607" width="4.1796875" style="1" customWidth="1"/>
-    <col min="3608" max="3846" width="11.453125" style="1"/>
-    <col min="3847" max="3847" width="5.1796875" style="1" customWidth="1"/>
-    <col min="3848" max="3848" width="4.54296875" style="1" customWidth="1"/>
+    <col min="3600" max="3601" width="4.21875" style="1" customWidth="1"/>
+    <col min="3602" max="3602" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3603" max="3603" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3604" max="3604" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3605" max="3605" width="22.21875" style="1" customWidth="1"/>
+    <col min="3606" max="3606" width="0.77734375" style="1" customWidth="1"/>
+    <col min="3607" max="3607" width="4.21875" style="1" customWidth="1"/>
+    <col min="3608" max="3846" width="11.44140625" style="1"/>
+    <col min="3847" max="3847" width="5.21875" style="1" customWidth="1"/>
+    <col min="3848" max="3848" width="4.5546875" style="1" customWidth="1"/>
     <col min="3849" max="3849" width="1" style="1" customWidth="1"/>
-    <col min="3850" max="3850" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3851" max="3851" width="8.453125" style="1" customWidth="1"/>
+    <col min="3850" max="3850" width="4.21875" style="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.44140625" style="1" customWidth="1"/>
     <col min="3852" max="3852" width="1" style="1" customWidth="1"/>
-    <col min="3853" max="3853" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3854" max="3854" width="7.453125" style="1" customWidth="1"/>
+    <col min="3853" max="3853" width="4.21875" style="1" customWidth="1"/>
+    <col min="3854" max="3854" width="7.44140625" style="1" customWidth="1"/>
     <col min="3855" max="3855" width="1" style="1" customWidth="1"/>
-    <col min="3856" max="3857" width="4.26953125" style="1" customWidth="1"/>
-    <col min="3858" max="3858" width="7.7265625" style="1" customWidth="1"/>
-    <col min="3859" max="3859" width="10.453125" style="1" customWidth="1"/>
-    <col min="3860" max="3860" width="12.7265625" style="1" customWidth="1"/>
-    <col min="3861" max="3861" width="22.26953125" style="1" customWidth="1"/>
-    <col min="3862" max="3862" width="0.7265625" style="1" customWidth="1"/>
-    <col min="3863" max="3863" width="4.1796875" style="1" customWidth="1"/>
-    <col min="3864" max="4102" width="11.453125" style="1"/>
-    <col min="4103" max="4103" width="5.1796875" style="1" customWidth="1"/>
-    <col min="4104" max="4104" width="4.54296875" style="1" customWidth="1"/>
+    <col min="3856" max="3857" width="4.21875" style="1" customWidth="1"/>
+    <col min="3858" max="3858" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3859" max="3859" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3860" max="3860" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3861" max="3861" width="22.21875" style="1" customWidth="1"/>
+    <col min="3862" max="3862" width="0.77734375" style="1" customWidth="1"/>
+    <col min="3863" max="3863" width="4.21875" style="1" customWidth="1"/>
+    <col min="3864" max="4102" width="11.44140625" style="1"/>
+    <col min="4103" max="4103" width="5.21875" style="1" customWidth="1"/>
+    <col min="4104" max="4104" width="4.5546875" style="1" customWidth="1"/>
     <col min="4105" max="4105" width="1" style="1" customWidth="1"/>
-    <col min="4106" max="4106" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4107" max="4107" width="8.453125" style="1" customWidth="1"/>
+    <col min="4106" max="4106" width="4.21875" style="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.44140625" style="1" customWidth="1"/>
     <col min="4108" max="4108" width="1" style="1" customWidth="1"/>
-    <col min="4109" max="4109" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4110" max="4110" width="7.453125" style="1" customWidth="1"/>
+    <col min="4109" max="4109" width="4.21875" style="1" customWidth="1"/>
+    <col min="4110" max="4110" width="7.44140625" style="1" customWidth="1"/>
     <col min="4111" max="4111" width="1" style="1" customWidth="1"/>
-    <col min="4112" max="4113" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4114" max="4114" width="7.7265625" style="1" customWidth="1"/>
-    <col min="4115" max="4115" width="10.453125" style="1" customWidth="1"/>
-    <col min="4116" max="4116" width="12.7265625" style="1" customWidth="1"/>
-    <col min="4117" max="4117" width="22.26953125" style="1" customWidth="1"/>
-    <col min="4118" max="4118" width="0.7265625" style="1" customWidth="1"/>
-    <col min="4119" max="4119" width="4.1796875" style="1" customWidth="1"/>
-    <col min="4120" max="4358" width="11.453125" style="1"/>
-    <col min="4359" max="4359" width="5.1796875" style="1" customWidth="1"/>
-    <col min="4360" max="4360" width="4.54296875" style="1" customWidth="1"/>
+    <col min="4112" max="4113" width="4.21875" style="1" customWidth="1"/>
+    <col min="4114" max="4114" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4115" max="4115" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4116" max="4116" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4117" max="4117" width="22.21875" style="1" customWidth="1"/>
+    <col min="4118" max="4118" width="0.77734375" style="1" customWidth="1"/>
+    <col min="4119" max="4119" width="4.21875" style="1" customWidth="1"/>
+    <col min="4120" max="4358" width="11.44140625" style="1"/>
+    <col min="4359" max="4359" width="5.21875" style="1" customWidth="1"/>
+    <col min="4360" max="4360" width="4.5546875" style="1" customWidth="1"/>
     <col min="4361" max="4361" width="1" style="1" customWidth="1"/>
-    <col min="4362" max="4362" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4363" max="4363" width="8.453125" style="1" customWidth="1"/>
+    <col min="4362" max="4362" width="4.21875" style="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.44140625" style="1" customWidth="1"/>
     <col min="4364" max="4364" width="1" style="1" customWidth="1"/>
-    <col min="4365" max="4365" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4366" max="4366" width="7.453125" style="1" customWidth="1"/>
+    <col min="4365" max="4365" width="4.21875" style="1" customWidth="1"/>
+    <col min="4366" max="4366" width="7.44140625" style="1" customWidth="1"/>
     <col min="4367" max="4367" width="1" style="1" customWidth="1"/>
-    <col min="4368" max="4369" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4370" max="4370" width="7.7265625" style="1" customWidth="1"/>
-    <col min="4371" max="4371" width="10.453125" style="1" customWidth="1"/>
-    <col min="4372" max="4372" width="12.7265625" style="1" customWidth="1"/>
-    <col min="4373" max="4373" width="22.26953125" style="1" customWidth="1"/>
-    <col min="4374" max="4374" width="0.7265625" style="1" customWidth="1"/>
-    <col min="4375" max="4375" width="4.1796875" style="1" customWidth="1"/>
-    <col min="4376" max="4614" width="11.453125" style="1"/>
-    <col min="4615" max="4615" width="5.1796875" style="1" customWidth="1"/>
-    <col min="4616" max="4616" width="4.54296875" style="1" customWidth="1"/>
+    <col min="4368" max="4369" width="4.21875" style="1" customWidth="1"/>
+    <col min="4370" max="4370" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4371" max="4371" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4372" max="4372" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4373" max="4373" width="22.21875" style="1" customWidth="1"/>
+    <col min="4374" max="4374" width="0.77734375" style="1" customWidth="1"/>
+    <col min="4375" max="4375" width="4.21875" style="1" customWidth="1"/>
+    <col min="4376" max="4614" width="11.44140625" style="1"/>
+    <col min="4615" max="4615" width="5.21875" style="1" customWidth="1"/>
+    <col min="4616" max="4616" width="4.5546875" style="1" customWidth="1"/>
     <col min="4617" max="4617" width="1" style="1" customWidth="1"/>
-    <col min="4618" max="4618" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4619" max="4619" width="8.453125" style="1" customWidth="1"/>
+    <col min="4618" max="4618" width="4.21875" style="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.44140625" style="1" customWidth="1"/>
     <col min="4620" max="4620" width="1" style="1" customWidth="1"/>
-    <col min="4621" max="4621" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4622" max="4622" width="7.453125" style="1" customWidth="1"/>
+    <col min="4621" max="4621" width="4.21875" style="1" customWidth="1"/>
+    <col min="4622" max="4622" width="7.44140625" style="1" customWidth="1"/>
     <col min="4623" max="4623" width="1" style="1" customWidth="1"/>
-    <col min="4624" max="4625" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4626" max="4626" width="7.7265625" style="1" customWidth="1"/>
-    <col min="4627" max="4627" width="10.453125" style="1" customWidth="1"/>
-    <col min="4628" max="4628" width="12.7265625" style="1" customWidth="1"/>
-    <col min="4629" max="4629" width="22.26953125" style="1" customWidth="1"/>
-    <col min="4630" max="4630" width="0.7265625" style="1" customWidth="1"/>
-    <col min="4631" max="4631" width="4.1796875" style="1" customWidth="1"/>
-    <col min="4632" max="4870" width="11.453125" style="1"/>
-    <col min="4871" max="4871" width="5.1796875" style="1" customWidth="1"/>
-    <col min="4872" max="4872" width="4.54296875" style="1" customWidth="1"/>
+    <col min="4624" max="4625" width="4.21875" style="1" customWidth="1"/>
+    <col min="4626" max="4626" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4627" max="4627" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4628" max="4628" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4629" max="4629" width="22.21875" style="1" customWidth="1"/>
+    <col min="4630" max="4630" width="0.77734375" style="1" customWidth="1"/>
+    <col min="4631" max="4631" width="4.21875" style="1" customWidth="1"/>
+    <col min="4632" max="4870" width="11.44140625" style="1"/>
+    <col min="4871" max="4871" width="5.21875" style="1" customWidth="1"/>
+    <col min="4872" max="4872" width="4.5546875" style="1" customWidth="1"/>
     <col min="4873" max="4873" width="1" style="1" customWidth="1"/>
-    <col min="4874" max="4874" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4875" max="4875" width="8.453125" style="1" customWidth="1"/>
+    <col min="4874" max="4874" width="4.21875" style="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.44140625" style="1" customWidth="1"/>
     <col min="4876" max="4876" width="1" style="1" customWidth="1"/>
-    <col min="4877" max="4877" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4878" max="4878" width="7.453125" style="1" customWidth="1"/>
+    <col min="4877" max="4877" width="4.21875" style="1" customWidth="1"/>
+    <col min="4878" max="4878" width="7.44140625" style="1" customWidth="1"/>
     <col min="4879" max="4879" width="1" style="1" customWidth="1"/>
-    <col min="4880" max="4881" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4882" max="4882" width="7.7265625" style="1" customWidth="1"/>
-    <col min="4883" max="4883" width="10.453125" style="1" customWidth="1"/>
-    <col min="4884" max="4884" width="12.7265625" style="1" customWidth="1"/>
-    <col min="4885" max="4885" width="22.26953125" style="1" customWidth="1"/>
-    <col min="4886" max="4886" width="0.7265625" style="1" customWidth="1"/>
-    <col min="4887" max="4887" width="4.1796875" style="1" customWidth="1"/>
-    <col min="4888" max="5126" width="11.453125" style="1"/>
-    <col min="5127" max="5127" width="5.1796875" style="1" customWidth="1"/>
-    <col min="5128" max="5128" width="4.54296875" style="1" customWidth="1"/>
+    <col min="4880" max="4881" width="4.21875" style="1" customWidth="1"/>
+    <col min="4882" max="4882" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4883" max="4883" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4884" max="4884" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4885" max="4885" width="22.21875" style="1" customWidth="1"/>
+    <col min="4886" max="4886" width="0.77734375" style="1" customWidth="1"/>
+    <col min="4887" max="4887" width="4.21875" style="1" customWidth="1"/>
+    <col min="4888" max="5126" width="11.44140625" style="1"/>
+    <col min="5127" max="5127" width="5.21875" style="1" customWidth="1"/>
+    <col min="5128" max="5128" width="4.5546875" style="1" customWidth="1"/>
     <col min="5129" max="5129" width="1" style="1" customWidth="1"/>
-    <col min="5130" max="5130" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5131" max="5131" width="8.453125" style="1" customWidth="1"/>
+    <col min="5130" max="5130" width="4.21875" style="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.44140625" style="1" customWidth="1"/>
     <col min="5132" max="5132" width="1" style="1" customWidth="1"/>
-    <col min="5133" max="5133" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5134" max="5134" width="7.453125" style="1" customWidth="1"/>
+    <col min="5133" max="5133" width="4.21875" style="1" customWidth="1"/>
+    <col min="5134" max="5134" width="7.44140625" style="1" customWidth="1"/>
     <col min="5135" max="5135" width="1" style="1" customWidth="1"/>
-    <col min="5136" max="5137" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5138" max="5138" width="7.7265625" style="1" customWidth="1"/>
-    <col min="5139" max="5139" width="10.453125" style="1" customWidth="1"/>
-    <col min="5140" max="5140" width="12.7265625" style="1" customWidth="1"/>
-    <col min="5141" max="5141" width="22.26953125" style="1" customWidth="1"/>
-    <col min="5142" max="5142" width="0.7265625" style="1" customWidth="1"/>
-    <col min="5143" max="5143" width="4.1796875" style="1" customWidth="1"/>
-    <col min="5144" max="5382" width="11.453125" style="1"/>
-    <col min="5383" max="5383" width="5.1796875" style="1" customWidth="1"/>
-    <col min="5384" max="5384" width="4.54296875" style="1" customWidth="1"/>
+    <col min="5136" max="5137" width="4.21875" style="1" customWidth="1"/>
+    <col min="5138" max="5138" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5139" max="5139" width="10.44140625" style="1" customWidth="1"/>
+    <col min="5140" max="5140" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5141" max="5141" width="22.21875" style="1" customWidth="1"/>
+    <col min="5142" max="5142" width="0.77734375" style="1" customWidth="1"/>
+    <col min="5143" max="5143" width="4.21875" style="1" customWidth="1"/>
+    <col min="5144" max="5382" width="11.44140625" style="1"/>
+    <col min="5383" max="5383" width="5.21875" style="1" customWidth="1"/>
+    <col min="5384" max="5384" width="4.5546875" style="1" customWidth="1"/>
     <col min="5385" max="5385" width="1" style="1" customWidth="1"/>
-    <col min="5386" max="5386" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5387" max="5387" width="8.453125" style="1" customWidth="1"/>
+    <col min="5386" max="5386" width="4.21875" style="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.44140625" style="1" customWidth="1"/>
     <col min="5388" max="5388" width="1" style="1" customWidth="1"/>
-    <col min="5389" max="5389" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5390" max="5390" width="7.453125" style="1" customWidth="1"/>
+    <col min="5389" max="5389" width="4.21875" style="1" customWidth="1"/>
+    <col min="5390" max="5390" width="7.44140625" style="1" customWidth="1"/>
     <col min="5391" max="5391" width="1" style="1" customWidth="1"/>
-    <col min="5392" max="5393" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5394" max="5394" width="7.7265625" style="1" customWidth="1"/>
-    <col min="5395" max="5395" width="10.453125" style="1" customWidth="1"/>
-    <col min="5396" max="5396" width="12.7265625" style="1" customWidth="1"/>
-    <col min="5397" max="5397" width="22.26953125" style="1" customWidth="1"/>
-    <col min="5398" max="5398" width="0.7265625" style="1" customWidth="1"/>
-    <col min="5399" max="5399" width="4.1796875" style="1" customWidth="1"/>
-    <col min="5400" max="5638" width="11.453125" style="1"/>
-    <col min="5639" max="5639" width="5.1796875" style="1" customWidth="1"/>
-    <col min="5640" max="5640" width="4.54296875" style="1" customWidth="1"/>
+    <col min="5392" max="5393" width="4.21875" style="1" customWidth="1"/>
+    <col min="5394" max="5394" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5395" max="5395" width="10.44140625" style="1" customWidth="1"/>
+    <col min="5396" max="5396" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5397" max="5397" width="22.21875" style="1" customWidth="1"/>
+    <col min="5398" max="5398" width="0.77734375" style="1" customWidth="1"/>
+    <col min="5399" max="5399" width="4.21875" style="1" customWidth="1"/>
+    <col min="5400" max="5638" width="11.44140625" style="1"/>
+    <col min="5639" max="5639" width="5.21875" style="1" customWidth="1"/>
+    <col min="5640" max="5640" width="4.5546875" style="1" customWidth="1"/>
     <col min="5641" max="5641" width="1" style="1" customWidth="1"/>
-    <col min="5642" max="5642" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5643" max="5643" width="8.453125" style="1" customWidth="1"/>
+    <col min="5642" max="5642" width="4.21875" style="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.44140625" style="1" customWidth="1"/>
     <col min="5644" max="5644" width="1" style="1" customWidth="1"/>
-    <col min="5645" max="5645" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5646" max="5646" width="7.453125" style="1" customWidth="1"/>
+    <col min="5645" max="5645" width="4.21875" style="1" customWidth="1"/>
+    <col min="5646" max="5646" width="7.44140625" style="1" customWidth="1"/>
     <col min="5647" max="5647" width="1" style="1" customWidth="1"/>
-    <col min="5648" max="5649" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5650" max="5650" width="7.7265625" style="1" customWidth="1"/>
-    <col min="5651" max="5651" width="10.453125" style="1" customWidth="1"/>
-    <col min="5652" max="5652" width="12.7265625" style="1" customWidth="1"/>
-    <col min="5653" max="5653" width="22.26953125" style="1" customWidth="1"/>
-    <col min="5654" max="5654" width="0.7265625" style="1" customWidth="1"/>
-    <col min="5655" max="5655" width="4.1796875" style="1" customWidth="1"/>
-    <col min="5656" max="5894" width="11.453125" style="1"/>
-    <col min="5895" max="5895" width="5.1796875" style="1" customWidth="1"/>
-    <col min="5896" max="5896" width="4.54296875" style="1" customWidth="1"/>
+    <col min="5648" max="5649" width="4.21875" style="1" customWidth="1"/>
+    <col min="5650" max="5650" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5651" max="5651" width="10.44140625" style="1" customWidth="1"/>
+    <col min="5652" max="5652" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5653" max="5653" width="22.21875" style="1" customWidth="1"/>
+    <col min="5654" max="5654" width="0.77734375" style="1" customWidth="1"/>
+    <col min="5655" max="5655" width="4.21875" style="1" customWidth="1"/>
+    <col min="5656" max="5894" width="11.44140625" style="1"/>
+    <col min="5895" max="5895" width="5.21875" style="1" customWidth="1"/>
+    <col min="5896" max="5896" width="4.5546875" style="1" customWidth="1"/>
     <col min="5897" max="5897" width="1" style="1" customWidth="1"/>
-    <col min="5898" max="5898" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5899" max="5899" width="8.453125" style="1" customWidth="1"/>
+    <col min="5898" max="5898" width="4.21875" style="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.44140625" style="1" customWidth="1"/>
     <col min="5900" max="5900" width="1" style="1" customWidth="1"/>
-    <col min="5901" max="5901" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5902" max="5902" width="7.453125" style="1" customWidth="1"/>
+    <col min="5901" max="5901" width="4.21875" style="1" customWidth="1"/>
+    <col min="5902" max="5902" width="7.44140625" style="1" customWidth="1"/>
     <col min="5903" max="5903" width="1" style="1" customWidth="1"/>
-    <col min="5904" max="5905" width="4.26953125" style="1" customWidth="1"/>
-    <col min="5906" max="5906" width="7.7265625" style="1" customWidth="1"/>
-    <col min="5907" max="5907" width="10.453125" style="1" customWidth="1"/>
-    <col min="5908" max="5908" width="12.7265625" style="1" customWidth="1"/>
-    <col min="5909" max="5909" width="22.26953125" style="1" customWidth="1"/>
-    <col min="5910" max="5910" width="0.7265625" style="1" customWidth="1"/>
-    <col min="5911" max="5911" width="4.1796875" style="1" customWidth="1"/>
-    <col min="5912" max="6150" width="11.453125" style="1"/>
-    <col min="6151" max="6151" width="5.1796875" style="1" customWidth="1"/>
-    <col min="6152" max="6152" width="4.54296875" style="1" customWidth="1"/>
+    <col min="5904" max="5905" width="4.21875" style="1" customWidth="1"/>
+    <col min="5906" max="5906" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5907" max="5907" width="10.44140625" style="1" customWidth="1"/>
+    <col min="5908" max="5908" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5909" max="5909" width="22.21875" style="1" customWidth="1"/>
+    <col min="5910" max="5910" width="0.77734375" style="1" customWidth="1"/>
+    <col min="5911" max="5911" width="4.21875" style="1" customWidth="1"/>
+    <col min="5912" max="6150" width="11.44140625" style="1"/>
+    <col min="6151" max="6151" width="5.21875" style="1" customWidth="1"/>
+    <col min="6152" max="6152" width="4.5546875" style="1" customWidth="1"/>
     <col min="6153" max="6153" width="1" style="1" customWidth="1"/>
-    <col min="6154" max="6154" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6155" max="6155" width="8.453125" style="1" customWidth="1"/>
+    <col min="6154" max="6154" width="4.21875" style="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.44140625" style="1" customWidth="1"/>
     <col min="6156" max="6156" width="1" style="1" customWidth="1"/>
-    <col min="6157" max="6157" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6158" max="6158" width="7.453125" style="1" customWidth="1"/>
+    <col min="6157" max="6157" width="4.21875" style="1" customWidth="1"/>
+    <col min="6158" max="6158" width="7.44140625" style="1" customWidth="1"/>
     <col min="6159" max="6159" width="1" style="1" customWidth="1"/>
-    <col min="6160" max="6161" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6162" max="6162" width="7.7265625" style="1" customWidth="1"/>
-    <col min="6163" max="6163" width="10.453125" style="1" customWidth="1"/>
-    <col min="6164" max="6164" width="12.7265625" style="1" customWidth="1"/>
-    <col min="6165" max="6165" width="22.26953125" style="1" customWidth="1"/>
-    <col min="6166" max="6166" width="0.7265625" style="1" customWidth="1"/>
-    <col min="6167" max="6167" width="4.1796875" style="1" customWidth="1"/>
-    <col min="6168" max="6406" width="11.453125" style="1"/>
-    <col min="6407" max="6407" width="5.1796875" style="1" customWidth="1"/>
-    <col min="6408" max="6408" width="4.54296875" style="1" customWidth="1"/>
+    <col min="6160" max="6161" width="4.21875" style="1" customWidth="1"/>
+    <col min="6162" max="6162" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6163" max="6163" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6164" max="6164" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6165" max="6165" width="22.21875" style="1" customWidth="1"/>
+    <col min="6166" max="6166" width="0.77734375" style="1" customWidth="1"/>
+    <col min="6167" max="6167" width="4.21875" style="1" customWidth="1"/>
+    <col min="6168" max="6406" width="11.44140625" style="1"/>
+    <col min="6407" max="6407" width="5.21875" style="1" customWidth="1"/>
+    <col min="6408" max="6408" width="4.5546875" style="1" customWidth="1"/>
     <col min="6409" max="6409" width="1" style="1" customWidth="1"/>
-    <col min="6410" max="6410" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6411" max="6411" width="8.453125" style="1" customWidth="1"/>
+    <col min="6410" max="6410" width="4.21875" style="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.44140625" style="1" customWidth="1"/>
     <col min="6412" max="6412" width="1" style="1" customWidth="1"/>
-    <col min="6413" max="6413" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6414" max="6414" width="7.453125" style="1" customWidth="1"/>
+    <col min="6413" max="6413" width="4.21875" style="1" customWidth="1"/>
+    <col min="6414" max="6414" width="7.44140625" style="1" customWidth="1"/>
     <col min="6415" max="6415" width="1" style="1" customWidth="1"/>
-    <col min="6416" max="6417" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6418" max="6418" width="7.7265625" style="1" customWidth="1"/>
-    <col min="6419" max="6419" width="10.453125" style="1" customWidth="1"/>
-    <col min="6420" max="6420" width="12.7265625" style="1" customWidth="1"/>
-    <col min="6421" max="6421" width="22.26953125" style="1" customWidth="1"/>
-    <col min="6422" max="6422" width="0.7265625" style="1" customWidth="1"/>
-    <col min="6423" max="6423" width="4.1796875" style="1" customWidth="1"/>
-    <col min="6424" max="6662" width="11.453125" style="1"/>
-    <col min="6663" max="6663" width="5.1796875" style="1" customWidth="1"/>
-    <col min="6664" max="6664" width="4.54296875" style="1" customWidth="1"/>
+    <col min="6416" max="6417" width="4.21875" style="1" customWidth="1"/>
+    <col min="6418" max="6418" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6419" max="6419" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6420" max="6420" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6421" max="6421" width="22.21875" style="1" customWidth="1"/>
+    <col min="6422" max="6422" width="0.77734375" style="1" customWidth="1"/>
+    <col min="6423" max="6423" width="4.21875" style="1" customWidth="1"/>
+    <col min="6424" max="6662" width="11.44140625" style="1"/>
+    <col min="6663" max="6663" width="5.21875" style="1" customWidth="1"/>
+    <col min="6664" max="6664" width="4.5546875" style="1" customWidth="1"/>
     <col min="6665" max="6665" width="1" style="1" customWidth="1"/>
-    <col min="6666" max="6666" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6667" max="6667" width="8.453125" style="1" customWidth="1"/>
+    <col min="6666" max="6666" width="4.21875" style="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.44140625" style="1" customWidth="1"/>
     <col min="6668" max="6668" width="1" style="1" customWidth="1"/>
-    <col min="6669" max="6669" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6670" max="6670" width="7.453125" style="1" customWidth="1"/>
+    <col min="6669" max="6669" width="4.21875" style="1" customWidth="1"/>
+    <col min="6670" max="6670" width="7.44140625" style="1" customWidth="1"/>
     <col min="6671" max="6671" width="1" style="1" customWidth="1"/>
-    <col min="6672" max="6673" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6674" max="6674" width="7.7265625" style="1" customWidth="1"/>
-    <col min="6675" max="6675" width="10.453125" style="1" customWidth="1"/>
-    <col min="6676" max="6676" width="12.7265625" style="1" customWidth="1"/>
-    <col min="6677" max="6677" width="22.26953125" style="1" customWidth="1"/>
-    <col min="6678" max="6678" width="0.7265625" style="1" customWidth="1"/>
-    <col min="6679" max="6679" width="4.1796875" style="1" customWidth="1"/>
-    <col min="6680" max="6918" width="11.453125" style="1"/>
-    <col min="6919" max="6919" width="5.1796875" style="1" customWidth="1"/>
-    <col min="6920" max="6920" width="4.54296875" style="1" customWidth="1"/>
+    <col min="6672" max="6673" width="4.21875" style="1" customWidth="1"/>
+    <col min="6674" max="6674" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6675" max="6675" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6676" max="6676" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6677" max="6677" width="22.21875" style="1" customWidth="1"/>
+    <col min="6678" max="6678" width="0.77734375" style="1" customWidth="1"/>
+    <col min="6679" max="6679" width="4.21875" style="1" customWidth="1"/>
+    <col min="6680" max="6918" width="11.44140625" style="1"/>
+    <col min="6919" max="6919" width="5.21875" style="1" customWidth="1"/>
+    <col min="6920" max="6920" width="4.5546875" style="1" customWidth="1"/>
     <col min="6921" max="6921" width="1" style="1" customWidth="1"/>
-    <col min="6922" max="6922" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6923" max="6923" width="8.453125" style="1" customWidth="1"/>
+    <col min="6922" max="6922" width="4.21875" style="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.44140625" style="1" customWidth="1"/>
     <col min="6924" max="6924" width="1" style="1" customWidth="1"/>
-    <col min="6925" max="6925" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6926" max="6926" width="7.453125" style="1" customWidth="1"/>
+    <col min="6925" max="6925" width="4.21875" style="1" customWidth="1"/>
+    <col min="6926" max="6926" width="7.44140625" style="1" customWidth="1"/>
     <col min="6927" max="6927" width="1" style="1" customWidth="1"/>
-    <col min="6928" max="6929" width="4.26953125" style="1" customWidth="1"/>
-    <col min="6930" max="6930" width="7.7265625" style="1" customWidth="1"/>
-    <col min="6931" max="6931" width="10.453125" style="1" customWidth="1"/>
-    <col min="6932" max="6932" width="12.7265625" style="1" customWidth="1"/>
-    <col min="6933" max="6933" width="22.26953125" style="1" customWidth="1"/>
-    <col min="6934" max="6934" width="0.7265625" style="1" customWidth="1"/>
-    <col min="6935" max="6935" width="4.1796875" style="1" customWidth="1"/>
-    <col min="6936" max="7174" width="11.453125" style="1"/>
-    <col min="7175" max="7175" width="5.1796875" style="1" customWidth="1"/>
-    <col min="7176" max="7176" width="4.54296875" style="1" customWidth="1"/>
+    <col min="6928" max="6929" width="4.21875" style="1" customWidth="1"/>
+    <col min="6930" max="6930" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6931" max="6931" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6932" max="6932" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6933" max="6933" width="22.21875" style="1" customWidth="1"/>
+    <col min="6934" max="6934" width="0.77734375" style="1" customWidth="1"/>
+    <col min="6935" max="6935" width="4.21875" style="1" customWidth="1"/>
+    <col min="6936" max="7174" width="11.44140625" style="1"/>
+    <col min="7175" max="7175" width="5.21875" style="1" customWidth="1"/>
+    <col min="7176" max="7176" width="4.5546875" style="1" customWidth="1"/>
     <col min="7177" max="7177" width="1" style="1" customWidth="1"/>
-    <col min="7178" max="7178" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7179" max="7179" width="8.453125" style="1" customWidth="1"/>
+    <col min="7178" max="7178" width="4.21875" style="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.44140625" style="1" customWidth="1"/>
     <col min="7180" max="7180" width="1" style="1" customWidth="1"/>
-    <col min="7181" max="7181" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7182" max="7182" width="7.453125" style="1" customWidth="1"/>
+    <col min="7181" max="7181" width="4.21875" style="1" customWidth="1"/>
+    <col min="7182" max="7182" width="7.44140625" style="1" customWidth="1"/>
     <col min="7183" max="7183" width="1" style="1" customWidth="1"/>
-    <col min="7184" max="7185" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7186" max="7186" width="7.7265625" style="1" customWidth="1"/>
-    <col min="7187" max="7187" width="10.453125" style="1" customWidth="1"/>
-    <col min="7188" max="7188" width="12.7265625" style="1" customWidth="1"/>
-    <col min="7189" max="7189" width="22.26953125" style="1" customWidth="1"/>
-    <col min="7190" max="7190" width="0.7265625" style="1" customWidth="1"/>
-    <col min="7191" max="7191" width="4.1796875" style="1" customWidth="1"/>
-    <col min="7192" max="7430" width="11.453125" style="1"/>
-    <col min="7431" max="7431" width="5.1796875" style="1" customWidth="1"/>
-    <col min="7432" max="7432" width="4.54296875" style="1" customWidth="1"/>
+    <col min="7184" max="7185" width="4.21875" style="1" customWidth="1"/>
+    <col min="7186" max="7186" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7187" max="7187" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7188" max="7188" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7189" max="7189" width="22.21875" style="1" customWidth="1"/>
+    <col min="7190" max="7190" width="0.77734375" style="1" customWidth="1"/>
+    <col min="7191" max="7191" width="4.21875" style="1" customWidth="1"/>
+    <col min="7192" max="7430" width="11.44140625" style="1"/>
+    <col min="7431" max="7431" width="5.21875" style="1" customWidth="1"/>
+    <col min="7432" max="7432" width="4.5546875" style="1" customWidth="1"/>
     <col min="7433" max="7433" width="1" style="1" customWidth="1"/>
-    <col min="7434" max="7434" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7435" max="7435" width="8.453125" style="1" customWidth="1"/>
+    <col min="7434" max="7434" width="4.21875" style="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.44140625" style="1" customWidth="1"/>
     <col min="7436" max="7436" width="1" style="1" customWidth="1"/>
-    <col min="7437" max="7437" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7438" max="7438" width="7.453125" style="1" customWidth="1"/>
+    <col min="7437" max="7437" width="4.21875" style="1" customWidth="1"/>
+    <col min="7438" max="7438" width="7.44140625" style="1" customWidth="1"/>
     <col min="7439" max="7439" width="1" style="1" customWidth="1"/>
-    <col min="7440" max="7441" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7442" max="7442" width="7.7265625" style="1" customWidth="1"/>
-    <col min="7443" max="7443" width="10.453125" style="1" customWidth="1"/>
-    <col min="7444" max="7444" width="12.7265625" style="1" customWidth="1"/>
-    <col min="7445" max="7445" width="22.26953125" style="1" customWidth="1"/>
-    <col min="7446" max="7446" width="0.7265625" style="1" customWidth="1"/>
-    <col min="7447" max="7447" width="4.1796875" style="1" customWidth="1"/>
-    <col min="7448" max="7686" width="11.453125" style="1"/>
-    <col min="7687" max="7687" width="5.1796875" style="1" customWidth="1"/>
-    <col min="7688" max="7688" width="4.54296875" style="1" customWidth="1"/>
+    <col min="7440" max="7441" width="4.21875" style="1" customWidth="1"/>
+    <col min="7442" max="7442" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7443" max="7443" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7444" max="7444" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7445" max="7445" width="22.21875" style="1" customWidth="1"/>
+    <col min="7446" max="7446" width="0.77734375" style="1" customWidth="1"/>
+    <col min="7447" max="7447" width="4.21875" style="1" customWidth="1"/>
+    <col min="7448" max="7686" width="11.44140625" style="1"/>
+    <col min="7687" max="7687" width="5.21875" style="1" customWidth="1"/>
+    <col min="7688" max="7688" width="4.5546875" style="1" customWidth="1"/>
     <col min="7689" max="7689" width="1" style="1" customWidth="1"/>
-    <col min="7690" max="7690" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7691" max="7691" width="8.453125" style="1" customWidth="1"/>
+    <col min="7690" max="7690" width="4.21875" style="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.44140625" style="1" customWidth="1"/>
     <col min="7692" max="7692" width="1" style="1" customWidth="1"/>
-    <col min="7693" max="7693" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7694" max="7694" width="7.453125" style="1" customWidth="1"/>
+    <col min="7693" max="7693" width="4.21875" style="1" customWidth="1"/>
+    <col min="7694" max="7694" width="7.44140625" style="1" customWidth="1"/>
     <col min="7695" max="7695" width="1" style="1" customWidth="1"/>
-    <col min="7696" max="7697" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7698" max="7698" width="7.7265625" style="1" customWidth="1"/>
-    <col min="7699" max="7699" width="10.453125" style="1" customWidth="1"/>
-    <col min="7700" max="7700" width="12.7265625" style="1" customWidth="1"/>
-    <col min="7701" max="7701" width="22.26953125" style="1" customWidth="1"/>
-    <col min="7702" max="7702" width="0.7265625" style="1" customWidth="1"/>
-    <col min="7703" max="7703" width="4.1796875" style="1" customWidth="1"/>
-    <col min="7704" max="7942" width="11.453125" style="1"/>
-    <col min="7943" max="7943" width="5.1796875" style="1" customWidth="1"/>
-    <col min="7944" max="7944" width="4.54296875" style="1" customWidth="1"/>
+    <col min="7696" max="7697" width="4.21875" style="1" customWidth="1"/>
+    <col min="7698" max="7698" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7699" max="7699" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7700" max="7700" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7701" max="7701" width="22.21875" style="1" customWidth="1"/>
+    <col min="7702" max="7702" width="0.77734375" style="1" customWidth="1"/>
+    <col min="7703" max="7703" width="4.21875" style="1" customWidth="1"/>
+    <col min="7704" max="7942" width="11.44140625" style="1"/>
+    <col min="7943" max="7943" width="5.21875" style="1" customWidth="1"/>
+    <col min="7944" max="7944" width="4.5546875" style="1" customWidth="1"/>
     <col min="7945" max="7945" width="1" style="1" customWidth="1"/>
-    <col min="7946" max="7946" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7947" max="7947" width="8.453125" style="1" customWidth="1"/>
+    <col min="7946" max="7946" width="4.21875" style="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.44140625" style="1" customWidth="1"/>
     <col min="7948" max="7948" width="1" style="1" customWidth="1"/>
-    <col min="7949" max="7949" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7950" max="7950" width="7.453125" style="1" customWidth="1"/>
+    <col min="7949" max="7949" width="4.21875" style="1" customWidth="1"/>
+    <col min="7950" max="7950" width="7.44140625" style="1" customWidth="1"/>
     <col min="7951" max="7951" width="1" style="1" customWidth="1"/>
-    <col min="7952" max="7953" width="4.26953125" style="1" customWidth="1"/>
-    <col min="7954" max="7954" width="7.7265625" style="1" customWidth="1"/>
-    <col min="7955" max="7955" width="10.453125" style="1" customWidth="1"/>
-    <col min="7956" max="7956" width="12.7265625" style="1" customWidth="1"/>
-    <col min="7957" max="7957" width="22.26953125" style="1" customWidth="1"/>
-    <col min="7958" max="7958" width="0.7265625" style="1" customWidth="1"/>
-    <col min="7959" max="7959" width="4.1796875" style="1" customWidth="1"/>
-    <col min="7960" max="8198" width="11.453125" style="1"/>
-    <col min="8199" max="8199" width="5.1796875" style="1" customWidth="1"/>
-    <col min="8200" max="8200" width="4.54296875" style="1" customWidth="1"/>
+    <col min="7952" max="7953" width="4.21875" style="1" customWidth="1"/>
+    <col min="7954" max="7954" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7955" max="7955" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7956" max="7956" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7957" max="7957" width="22.21875" style="1" customWidth="1"/>
+    <col min="7958" max="7958" width="0.77734375" style="1" customWidth="1"/>
+    <col min="7959" max="7959" width="4.21875" style="1" customWidth="1"/>
+    <col min="7960" max="8198" width="11.44140625" style="1"/>
+    <col min="8199" max="8199" width="5.21875" style="1" customWidth="1"/>
+    <col min="8200" max="8200" width="4.5546875" style="1" customWidth="1"/>
     <col min="8201" max="8201" width="1" style="1" customWidth="1"/>
-    <col min="8202" max="8202" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8203" max="8203" width="8.453125" style="1" customWidth="1"/>
+    <col min="8202" max="8202" width="4.21875" style="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.44140625" style="1" customWidth="1"/>
     <col min="8204" max="8204" width="1" style="1" customWidth="1"/>
-    <col min="8205" max="8205" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8206" max="8206" width="7.453125" style="1" customWidth="1"/>
+    <col min="8205" max="8205" width="4.21875" style="1" customWidth="1"/>
+    <col min="8206" max="8206" width="7.44140625" style="1" customWidth="1"/>
     <col min="8207" max="8207" width="1" style="1" customWidth="1"/>
-    <col min="8208" max="8209" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8210" max="8210" width="7.7265625" style="1" customWidth="1"/>
-    <col min="8211" max="8211" width="10.453125" style="1" customWidth="1"/>
-    <col min="8212" max="8212" width="12.7265625" style="1" customWidth="1"/>
-    <col min="8213" max="8213" width="22.26953125" style="1" customWidth="1"/>
-    <col min="8214" max="8214" width="0.7265625" style="1" customWidth="1"/>
-    <col min="8215" max="8215" width="4.1796875" style="1" customWidth="1"/>
-    <col min="8216" max="8454" width="11.453125" style="1"/>
-    <col min="8455" max="8455" width="5.1796875" style="1" customWidth="1"/>
-    <col min="8456" max="8456" width="4.54296875" style="1" customWidth="1"/>
+    <col min="8208" max="8209" width="4.21875" style="1" customWidth="1"/>
+    <col min="8210" max="8210" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8211" max="8211" width="10.44140625" style="1" customWidth="1"/>
+    <col min="8212" max="8212" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8213" max="8213" width="22.21875" style="1" customWidth="1"/>
+    <col min="8214" max="8214" width="0.77734375" style="1" customWidth="1"/>
+    <col min="8215" max="8215" width="4.21875" style="1" customWidth="1"/>
+    <col min="8216" max="8454" width="11.44140625" style="1"/>
+    <col min="8455" max="8455" width="5.21875" style="1" customWidth="1"/>
+    <col min="8456" max="8456" width="4.5546875" style="1" customWidth="1"/>
     <col min="8457" max="8457" width="1" style="1" customWidth="1"/>
-    <col min="8458" max="8458" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8459" max="8459" width="8.453125" style="1" customWidth="1"/>
+    <col min="8458" max="8458" width="4.21875" style="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.44140625" style="1" customWidth="1"/>
     <col min="8460" max="8460" width="1" style="1" customWidth="1"/>
-    <col min="8461" max="8461" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8462" max="8462" width="7.453125" style="1" customWidth="1"/>
+    <col min="8461" max="8461" width="4.21875" style="1" customWidth="1"/>
+    <col min="8462" max="8462" width="7.44140625" style="1" customWidth="1"/>
     <col min="8463" max="8463" width="1" style="1" customWidth="1"/>
-    <col min="8464" max="8465" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8466" max="8466" width="7.7265625" style="1" customWidth="1"/>
-    <col min="8467" max="8467" width="10.453125" style="1" customWidth="1"/>
-    <col min="8468" max="8468" width="12.7265625" style="1" customWidth="1"/>
-    <col min="8469" max="8469" width="22.26953125" style="1" customWidth="1"/>
-    <col min="8470" max="8470" width="0.7265625" style="1" customWidth="1"/>
-    <col min="8471" max="8471" width="4.1796875" style="1" customWidth="1"/>
-    <col min="8472" max="8710" width="11.453125" style="1"/>
-    <col min="8711" max="8711" width="5.1796875" style="1" customWidth="1"/>
-    <col min="8712" max="8712" width="4.54296875" style="1" customWidth="1"/>
+    <col min="8464" max="8465" width="4.21875" style="1" customWidth="1"/>
+    <col min="8466" max="8466" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8467" max="8467" width="10.44140625" style="1" customWidth="1"/>
+    <col min="8468" max="8468" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8469" max="8469" width="22.21875" style="1" customWidth="1"/>
+    <col min="8470" max="8470" width="0.77734375" style="1" customWidth="1"/>
+    <col min="8471" max="8471" width="4.21875" style="1" customWidth="1"/>
+    <col min="8472" max="8710" width="11.44140625" style="1"/>
+    <col min="8711" max="8711" width="5.21875" style="1" customWidth="1"/>
+    <col min="8712" max="8712" width="4.5546875" style="1" customWidth="1"/>
     <col min="8713" max="8713" width="1" style="1" customWidth="1"/>
-    <col min="8714" max="8714" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8715" max="8715" width="8.453125" style="1" customWidth="1"/>
+    <col min="8714" max="8714" width="4.21875" style="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.44140625" style="1" customWidth="1"/>
     <col min="8716" max="8716" width="1" style="1" customWidth="1"/>
-    <col min="8717" max="8717" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8718" max="8718" width="7.453125" style="1" customWidth="1"/>
+    <col min="8717" max="8717" width="4.21875" style="1" customWidth="1"/>
+    <col min="8718" max="8718" width="7.44140625" style="1" customWidth="1"/>
     <col min="8719" max="8719" width="1" style="1" customWidth="1"/>
-    <col min="8720" max="8721" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8722" max="8722" width="7.7265625" style="1" customWidth="1"/>
-    <col min="8723" max="8723" width="10.453125" style="1" customWidth="1"/>
-    <col min="8724" max="8724" width="12.7265625" style="1" customWidth="1"/>
-    <col min="8725" max="8725" width="22.26953125" style="1" customWidth="1"/>
-    <col min="8726" max="8726" width="0.7265625" style="1" customWidth="1"/>
-    <col min="8727" max="8727" width="4.1796875" style="1" customWidth="1"/>
-    <col min="8728" max="8966" width="11.453125" style="1"/>
-    <col min="8967" max="8967" width="5.1796875" style="1" customWidth="1"/>
-    <col min="8968" max="8968" width="4.54296875" style="1" customWidth="1"/>
+    <col min="8720" max="8721" width="4.21875" style="1" customWidth="1"/>
+    <col min="8722" max="8722" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8723" max="8723" width="10.44140625" style="1" customWidth="1"/>
+    <col min="8724" max="8724" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8725" max="8725" width="22.21875" style="1" customWidth="1"/>
+    <col min="8726" max="8726" width="0.77734375" style="1" customWidth="1"/>
+    <col min="8727" max="8727" width="4.21875" style="1" customWidth="1"/>
+    <col min="8728" max="8966" width="11.44140625" style="1"/>
+    <col min="8967" max="8967" width="5.21875" style="1" customWidth="1"/>
+    <col min="8968" max="8968" width="4.5546875" style="1" customWidth="1"/>
     <col min="8969" max="8969" width="1" style="1" customWidth="1"/>
-    <col min="8970" max="8970" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8971" max="8971" width="8.453125" style="1" customWidth="1"/>
+    <col min="8970" max="8970" width="4.21875" style="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.44140625" style="1" customWidth="1"/>
     <col min="8972" max="8972" width="1" style="1" customWidth="1"/>
-    <col min="8973" max="8973" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8974" max="8974" width="7.453125" style="1" customWidth="1"/>
+    <col min="8973" max="8973" width="4.21875" style="1" customWidth="1"/>
+    <col min="8974" max="8974" width="7.44140625" style="1" customWidth="1"/>
     <col min="8975" max="8975" width="1" style="1" customWidth="1"/>
-    <col min="8976" max="8977" width="4.26953125" style="1" customWidth="1"/>
-    <col min="8978" max="8978" width="7.7265625" style="1" customWidth="1"/>
-    <col min="8979" max="8979" width="10.453125" style="1" customWidth="1"/>
-    <col min="8980" max="8980" width="12.7265625" style="1" customWidth="1"/>
-    <col min="8981" max="8981" width="22.26953125" style="1" customWidth="1"/>
-    <col min="8982" max="8982" width="0.7265625" style="1" customWidth="1"/>
-    <col min="8983" max="8983" width="4.1796875" style="1" customWidth="1"/>
-    <col min="8984" max="9222" width="11.453125" style="1"/>
-    <col min="9223" max="9223" width="5.1796875" style="1" customWidth="1"/>
-    <col min="9224" max="9224" width="4.54296875" style="1" customWidth="1"/>
+    <col min="8976" max="8977" width="4.21875" style="1" customWidth="1"/>
+    <col min="8978" max="8978" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8979" max="8979" width="10.44140625" style="1" customWidth="1"/>
+    <col min="8980" max="8980" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8981" max="8981" width="22.21875" style="1" customWidth="1"/>
+    <col min="8982" max="8982" width="0.77734375" style="1" customWidth="1"/>
+    <col min="8983" max="8983" width="4.21875" style="1" customWidth="1"/>
+    <col min="8984" max="9222" width="11.44140625" style="1"/>
+    <col min="9223" max="9223" width="5.21875" style="1" customWidth="1"/>
+    <col min="9224" max="9224" width="4.5546875" style="1" customWidth="1"/>
     <col min="9225" max="9225" width="1" style="1" customWidth="1"/>
-    <col min="9226" max="9226" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9227" max="9227" width="8.453125" style="1" customWidth="1"/>
+    <col min="9226" max="9226" width="4.21875" style="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.44140625" style="1" customWidth="1"/>
     <col min="9228" max="9228" width="1" style="1" customWidth="1"/>
-    <col min="9229" max="9229" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9230" max="9230" width="7.453125" style="1" customWidth="1"/>
+    <col min="9229" max="9229" width="4.21875" style="1" customWidth="1"/>
+    <col min="9230" max="9230" width="7.44140625" style="1" customWidth="1"/>
     <col min="9231" max="9231" width="1" style="1" customWidth="1"/>
-    <col min="9232" max="9233" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9234" max="9234" width="7.7265625" style="1" customWidth="1"/>
-    <col min="9235" max="9235" width="10.453125" style="1" customWidth="1"/>
-    <col min="9236" max="9236" width="12.7265625" style="1" customWidth="1"/>
-    <col min="9237" max="9237" width="22.26953125" style="1" customWidth="1"/>
-    <col min="9238" max="9238" width="0.7265625" style="1" customWidth="1"/>
-    <col min="9239" max="9239" width="4.1796875" style="1" customWidth="1"/>
-    <col min="9240" max="9478" width="11.453125" style="1"/>
-    <col min="9479" max="9479" width="5.1796875" style="1" customWidth="1"/>
-    <col min="9480" max="9480" width="4.54296875" style="1" customWidth="1"/>
+    <col min="9232" max="9233" width="4.21875" style="1" customWidth="1"/>
+    <col min="9234" max="9234" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9235" max="9235" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9236" max="9236" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9237" max="9237" width="22.21875" style="1" customWidth="1"/>
+    <col min="9238" max="9238" width="0.77734375" style="1" customWidth="1"/>
+    <col min="9239" max="9239" width="4.21875" style="1" customWidth="1"/>
+    <col min="9240" max="9478" width="11.44140625" style="1"/>
+    <col min="9479" max="9479" width="5.21875" style="1" customWidth="1"/>
+    <col min="9480" max="9480" width="4.5546875" style="1" customWidth="1"/>
     <col min="9481" max="9481" width="1" style="1" customWidth="1"/>
-    <col min="9482" max="9482" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9483" max="9483" width="8.453125" style="1" customWidth="1"/>
+    <col min="9482" max="9482" width="4.21875" style="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.44140625" style="1" customWidth="1"/>
     <col min="9484" max="9484" width="1" style="1" customWidth="1"/>
-    <col min="9485" max="9485" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9486" max="9486" width="7.453125" style="1" customWidth="1"/>
+    <col min="9485" max="9485" width="4.21875" style="1" customWidth="1"/>
+    <col min="9486" max="9486" width="7.44140625" style="1" customWidth="1"/>
     <col min="9487" max="9487" width="1" style="1" customWidth="1"/>
-    <col min="9488" max="9489" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9490" max="9490" width="7.7265625" style="1" customWidth="1"/>
-    <col min="9491" max="9491" width="10.453125" style="1" customWidth="1"/>
-    <col min="9492" max="9492" width="12.7265625" style="1" customWidth="1"/>
-    <col min="9493" max="9493" width="22.26953125" style="1" customWidth="1"/>
-    <col min="9494" max="9494" width="0.7265625" style="1" customWidth="1"/>
-    <col min="9495" max="9495" width="4.1796875" style="1" customWidth="1"/>
-    <col min="9496" max="9734" width="11.453125" style="1"/>
-    <col min="9735" max="9735" width="5.1796875" style="1" customWidth="1"/>
-    <col min="9736" max="9736" width="4.54296875" style="1" customWidth="1"/>
+    <col min="9488" max="9489" width="4.21875" style="1" customWidth="1"/>
+    <col min="9490" max="9490" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9491" max="9491" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9492" max="9492" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9493" max="9493" width="22.21875" style="1" customWidth="1"/>
+    <col min="9494" max="9494" width="0.77734375" style="1" customWidth="1"/>
+    <col min="9495" max="9495" width="4.21875" style="1" customWidth="1"/>
+    <col min="9496" max="9734" width="11.44140625" style="1"/>
+    <col min="9735" max="9735" width="5.21875" style="1" customWidth="1"/>
+    <col min="9736" max="9736" width="4.5546875" style="1" customWidth="1"/>
     <col min="9737" max="9737" width="1" style="1" customWidth="1"/>
-    <col min="9738" max="9738" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9739" max="9739" width="8.453125" style="1" customWidth="1"/>
+    <col min="9738" max="9738" width="4.21875" style="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.44140625" style="1" customWidth="1"/>
     <col min="9740" max="9740" width="1" style="1" customWidth="1"/>
-    <col min="9741" max="9741" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9742" max="9742" width="7.453125" style="1" customWidth="1"/>
+    <col min="9741" max="9741" width="4.21875" style="1" customWidth="1"/>
+    <col min="9742" max="9742" width="7.44140625" style="1" customWidth="1"/>
     <col min="9743" max="9743" width="1" style="1" customWidth="1"/>
-    <col min="9744" max="9745" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9746" max="9746" width="7.7265625" style="1" customWidth="1"/>
-    <col min="9747" max="9747" width="10.453125" style="1" customWidth="1"/>
-    <col min="9748" max="9748" width="12.7265625" style="1" customWidth="1"/>
-    <col min="9749" max="9749" width="22.26953125" style="1" customWidth="1"/>
-    <col min="9750" max="9750" width="0.7265625" style="1" customWidth="1"/>
-    <col min="9751" max="9751" width="4.1796875" style="1" customWidth="1"/>
-    <col min="9752" max="9990" width="11.453125" style="1"/>
-    <col min="9991" max="9991" width="5.1796875" style="1" customWidth="1"/>
-    <col min="9992" max="9992" width="4.54296875" style="1" customWidth="1"/>
+    <col min="9744" max="9745" width="4.21875" style="1" customWidth="1"/>
+    <col min="9746" max="9746" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9747" max="9747" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9748" max="9748" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9749" max="9749" width="22.21875" style="1" customWidth="1"/>
+    <col min="9750" max="9750" width="0.77734375" style="1" customWidth="1"/>
+    <col min="9751" max="9751" width="4.21875" style="1" customWidth="1"/>
+    <col min="9752" max="9990" width="11.44140625" style="1"/>
+    <col min="9991" max="9991" width="5.21875" style="1" customWidth="1"/>
+    <col min="9992" max="9992" width="4.5546875" style="1" customWidth="1"/>
     <col min="9993" max="9993" width="1" style="1" customWidth="1"/>
-    <col min="9994" max="9994" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9995" max="9995" width="8.453125" style="1" customWidth="1"/>
+    <col min="9994" max="9994" width="4.21875" style="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.44140625" style="1" customWidth="1"/>
     <col min="9996" max="9996" width="1" style="1" customWidth="1"/>
-    <col min="9997" max="9997" width="4.26953125" style="1" customWidth="1"/>
-    <col min="9998" max="9998" width="7.453125" style="1" customWidth="1"/>
+    <col min="9997" max="9997" width="4.21875" style="1" customWidth="1"/>
+    <col min="9998" max="9998" width="7.44140625" style="1" customWidth="1"/>
     <col min="9999" max="9999" width="1" style="1" customWidth="1"/>
-    <col min="10000" max="10001" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10002" max="10002" width="7.7265625" style="1" customWidth="1"/>
-    <col min="10003" max="10003" width="10.453125" style="1" customWidth="1"/>
-    <col min="10004" max="10004" width="12.7265625" style="1" customWidth="1"/>
-    <col min="10005" max="10005" width="22.26953125" style="1" customWidth="1"/>
-    <col min="10006" max="10006" width="0.7265625" style="1" customWidth="1"/>
-    <col min="10007" max="10007" width="4.1796875" style="1" customWidth="1"/>
-    <col min="10008" max="10246" width="11.453125" style="1"/>
-    <col min="10247" max="10247" width="5.1796875" style="1" customWidth="1"/>
-    <col min="10248" max="10248" width="4.54296875" style="1" customWidth="1"/>
+    <col min="10000" max="10001" width="4.21875" style="1" customWidth="1"/>
+    <col min="10002" max="10002" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10003" max="10003" width="10.44140625" style="1" customWidth="1"/>
+    <col min="10004" max="10004" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10005" max="10005" width="22.21875" style="1" customWidth="1"/>
+    <col min="10006" max="10006" width="0.77734375" style="1" customWidth="1"/>
+    <col min="10007" max="10007" width="4.21875" style="1" customWidth="1"/>
+    <col min="10008" max="10246" width="11.44140625" style="1"/>
+    <col min="10247" max="10247" width="5.21875" style="1" customWidth="1"/>
+    <col min="10248" max="10248" width="4.5546875" style="1" customWidth="1"/>
     <col min="10249" max="10249" width="1" style="1" customWidth="1"/>
-    <col min="10250" max="10250" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10251" max="10251" width="8.453125" style="1" customWidth="1"/>
+    <col min="10250" max="10250" width="4.21875" style="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.44140625" style="1" customWidth="1"/>
     <col min="10252" max="10252" width="1" style="1" customWidth="1"/>
-    <col min="10253" max="10253" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10254" max="10254" width="7.453125" style="1" customWidth="1"/>
+    <col min="10253" max="10253" width="4.21875" style="1" customWidth="1"/>
+    <col min="10254" max="10254" width="7.44140625" style="1" customWidth="1"/>
     <col min="10255" max="10255" width="1" style="1" customWidth="1"/>
-    <col min="10256" max="10257" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10258" max="10258" width="7.7265625" style="1" customWidth="1"/>
-    <col min="10259" max="10259" width="10.453125" style="1" customWidth="1"/>
-    <col min="10260" max="10260" width="12.7265625" style="1" customWidth="1"/>
-    <col min="10261" max="10261" width="22.26953125" style="1" customWidth="1"/>
-    <col min="10262" max="10262" width="0.7265625" style="1" customWidth="1"/>
-    <col min="10263" max="10263" width="4.1796875" style="1" customWidth="1"/>
-    <col min="10264" max="10502" width="11.453125" style="1"/>
-    <col min="10503" max="10503" width="5.1796875" style="1" customWidth="1"/>
-    <col min="10504" max="10504" width="4.54296875" style="1" customWidth="1"/>
+    <col min="10256" max="10257" width="4.21875" style="1" customWidth="1"/>
+    <col min="10258" max="10258" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10259" max="10259" width="10.44140625" style="1" customWidth="1"/>
+    <col min="10260" max="10260" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10261" max="10261" width="22.21875" style="1" customWidth="1"/>
+    <col min="10262" max="10262" width="0.77734375" style="1" customWidth="1"/>
+    <col min="10263" max="10263" width="4.21875" style="1" customWidth="1"/>
+    <col min="10264" max="10502" width="11.44140625" style="1"/>
+    <col min="10503" max="10503" width="5.21875" style="1" customWidth="1"/>
+    <col min="10504" max="10504" width="4.5546875" style="1" customWidth="1"/>
     <col min="10505" max="10505" width="1" style="1" customWidth="1"/>
-    <col min="10506" max="10506" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10507" max="10507" width="8.453125" style="1" customWidth="1"/>
+    <col min="10506" max="10506" width="4.21875" style="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.44140625" style="1" customWidth="1"/>
     <col min="10508" max="10508" width="1" style="1" customWidth="1"/>
-    <col min="10509" max="10509" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10510" max="10510" width="7.453125" style="1" customWidth="1"/>
+    <col min="10509" max="10509" width="4.21875" style="1" customWidth="1"/>
+    <col min="10510" max="10510" width="7.44140625" style="1" customWidth="1"/>
     <col min="10511" max="10511" width="1" style="1" customWidth="1"/>
-    <col min="10512" max="10513" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10514" max="10514" width="7.7265625" style="1" customWidth="1"/>
-    <col min="10515" max="10515" width="10.453125" style="1" customWidth="1"/>
-    <col min="10516" max="10516" width="12.7265625" style="1" customWidth="1"/>
-    <col min="10517" max="10517" width="22.26953125" style="1" customWidth="1"/>
-    <col min="10518" max="10518" width="0.7265625" style="1" customWidth="1"/>
-    <col min="10519" max="10519" width="4.1796875" style="1" customWidth="1"/>
-    <col min="10520" max="10758" width="11.453125" style="1"/>
-    <col min="10759" max="10759" width="5.1796875" style="1" customWidth="1"/>
-    <col min="10760" max="10760" width="4.54296875" style="1" customWidth="1"/>
+    <col min="10512" max="10513" width="4.21875" style="1" customWidth="1"/>
+    <col min="10514" max="10514" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10515" max="10515" width="10.44140625" style="1" customWidth="1"/>
+    <col min="10516" max="10516" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10517" max="10517" width="22.21875" style="1" customWidth="1"/>
+    <col min="10518" max="10518" width="0.77734375" style="1" customWidth="1"/>
+    <col min="10519" max="10519" width="4.21875" style="1" customWidth="1"/>
+    <col min="10520" max="10758" width="11.44140625" style="1"/>
+    <col min="10759" max="10759" width="5.21875" style="1" customWidth="1"/>
+    <col min="10760" max="10760" width="4.5546875" style="1" customWidth="1"/>
     <col min="10761" max="10761" width="1" style="1" customWidth="1"/>
-    <col min="10762" max="10762" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10763" max="10763" width="8.453125" style="1" customWidth="1"/>
+    <col min="10762" max="10762" width="4.21875" style="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.44140625" style="1" customWidth="1"/>
     <col min="10764" max="10764" width="1" style="1" customWidth="1"/>
-    <col min="10765" max="10765" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10766" max="10766" width="7.453125" style="1" customWidth="1"/>
+    <col min="10765" max="10765" width="4.21875" style="1" customWidth="1"/>
+    <col min="10766" max="10766" width="7.44140625" style="1" customWidth="1"/>
     <col min="10767" max="10767" width="1" style="1" customWidth="1"/>
-    <col min="10768" max="10769" width="4.26953125" style="1" customWidth="1"/>
-    <col min="10770" max="10770" width="7.7265625" style="1" customWidth="1"/>
-    <col min="10771" max="10771" width="10.453125" style="1" customWidth="1"/>
-    <col min="10772" max="10772" width="12.7265625" style="1" customWidth="1"/>
-    <col min="10773" max="10773" width="22.26953125" style="1" customWidth="1"/>
-    <col min="10774" max="10774" width="0.7265625" style="1" customWidth="1"/>
-    <col min="10775" max="10775" width="4.1796875" style="1" customWidth="1"/>
-    <col min="10776" max="11014" width="11.453125" style="1"/>
-    <col min="11015" max="11015" width="5.1796875" style="1" customWidth="1"/>
-    <col min="11016" max="11016" width="4.54296875" style="1" customWidth="1"/>
+    <col min="10768" max="10769" width="4.21875" style="1" customWidth="1"/>
+    <col min="10770" max="10770" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10771" max="10771" width="10.44140625" style="1" customWidth="1"/>
+    <col min="10772" max="10772" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10773" max="10773" width="22.21875" style="1" customWidth="1"/>
+    <col min="10774" max="10774" width="0.77734375" style="1" customWidth="1"/>
+    <col min="10775" max="10775" width="4.21875" style="1" customWidth="1"/>
+    <col min="10776" max="11014" width="11.44140625" style="1"/>
+    <col min="11015" max="11015" width="5.21875" style="1" customWidth="1"/>
+    <col min="11016" max="11016" width="4.5546875" style="1" customWidth="1"/>
     <col min="11017" max="11017" width="1" style="1" customWidth="1"/>
-    <col min="11018" max="11018" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11019" max="11019" width="8.453125" style="1" customWidth="1"/>
+    <col min="11018" max="11018" width="4.21875" style="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.44140625" style="1" customWidth="1"/>
     <col min="11020" max="11020" width="1" style="1" customWidth="1"/>
-    <col min="11021" max="11021" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11022" max="11022" width="7.453125" style="1" customWidth="1"/>
+    <col min="11021" max="11021" width="4.21875" style="1" customWidth="1"/>
+    <col min="11022" max="11022" width="7.44140625" style="1" customWidth="1"/>
     <col min="11023" max="11023" width="1" style="1" customWidth="1"/>
-    <col min="11024" max="11025" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11026" max="11026" width="7.7265625" style="1" customWidth="1"/>
-    <col min="11027" max="11027" width="10.453125" style="1" customWidth="1"/>
-    <col min="11028" max="11028" width="12.7265625" style="1" customWidth="1"/>
-    <col min="11029" max="11029" width="22.26953125" style="1" customWidth="1"/>
-    <col min="11030" max="11030" width="0.7265625" style="1" customWidth="1"/>
-    <col min="11031" max="11031" width="4.1796875" style="1" customWidth="1"/>
-    <col min="11032" max="11270" width="11.453125" style="1"/>
-    <col min="11271" max="11271" width="5.1796875" style="1" customWidth="1"/>
-    <col min="11272" max="11272" width="4.54296875" style="1" customWidth="1"/>
+    <col min="11024" max="11025" width="4.21875" style="1" customWidth="1"/>
+    <col min="11026" max="11026" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11027" max="11027" width="10.44140625" style="1" customWidth="1"/>
+    <col min="11028" max="11028" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11029" max="11029" width="22.21875" style="1" customWidth="1"/>
+    <col min="11030" max="11030" width="0.77734375" style="1" customWidth="1"/>
+    <col min="11031" max="11031" width="4.21875" style="1" customWidth="1"/>
+    <col min="11032" max="11270" width="11.44140625" style="1"/>
+    <col min="11271" max="11271" width="5.21875" style="1" customWidth="1"/>
+    <col min="11272" max="11272" width="4.5546875" style="1" customWidth="1"/>
     <col min="11273" max="11273" width="1" style="1" customWidth="1"/>
-    <col min="11274" max="11274" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11275" max="11275" width="8.453125" style="1" customWidth="1"/>
+    <col min="11274" max="11274" width="4.21875" style="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.44140625" style="1" customWidth="1"/>
     <col min="11276" max="11276" width="1" style="1" customWidth="1"/>
-    <col min="11277" max="11277" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11278" max="11278" width="7.453125" style="1" customWidth="1"/>
+    <col min="11277" max="11277" width="4.21875" style="1" customWidth="1"/>
+    <col min="11278" max="11278" width="7.44140625" style="1" customWidth="1"/>
     <col min="11279" max="11279" width="1" style="1" customWidth="1"/>
-    <col min="11280" max="11281" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11282" max="11282" width="7.7265625" style="1" customWidth="1"/>
-    <col min="11283" max="11283" width="10.453125" style="1" customWidth="1"/>
-    <col min="11284" max="11284" width="12.7265625" style="1" customWidth="1"/>
-    <col min="11285" max="11285" width="22.26953125" style="1" customWidth="1"/>
-    <col min="11286" max="11286" width="0.7265625" style="1" customWidth="1"/>
-    <col min="11287" max="11287" width="4.1796875" style="1" customWidth="1"/>
-    <col min="11288" max="11526" width="11.453125" style="1"/>
-    <col min="11527" max="11527" width="5.1796875" style="1" customWidth="1"/>
-    <col min="11528" max="11528" width="4.54296875" style="1" customWidth="1"/>
+    <col min="11280" max="11281" width="4.21875" style="1" customWidth="1"/>
+    <col min="11282" max="11282" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11283" max="11283" width="10.44140625" style="1" customWidth="1"/>
+    <col min="11284" max="11284" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11285" max="11285" width="22.21875" style="1" customWidth="1"/>
+    <col min="11286" max="11286" width="0.77734375" style="1" customWidth="1"/>
+    <col min="11287" max="11287" width="4.21875" style="1" customWidth="1"/>
+    <col min="11288" max="11526" width="11.44140625" style="1"/>
+    <col min="11527" max="11527" width="5.21875" style="1" customWidth="1"/>
+    <col min="11528" max="11528" width="4.5546875" style="1" customWidth="1"/>
     <col min="11529" max="11529" width="1" style="1" customWidth="1"/>
-    <col min="11530" max="11530" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11531" max="11531" width="8.453125" style="1" customWidth="1"/>
+    <col min="11530" max="11530" width="4.21875" style="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.44140625" style="1" customWidth="1"/>
     <col min="11532" max="11532" width="1" style="1" customWidth="1"/>
-    <col min="11533" max="11533" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11534" max="11534" width="7.453125" style="1" customWidth="1"/>
+    <col min="11533" max="11533" width="4.21875" style="1" customWidth="1"/>
+    <col min="11534" max="11534" width="7.44140625" style="1" customWidth="1"/>
     <col min="11535" max="11535" width="1" style="1" customWidth="1"/>
-    <col min="11536" max="11537" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11538" max="11538" width="7.7265625" style="1" customWidth="1"/>
-    <col min="11539" max="11539" width="10.453125" style="1" customWidth="1"/>
-    <col min="11540" max="11540" width="12.7265625" style="1" customWidth="1"/>
-    <col min="11541" max="11541" width="22.26953125" style="1" customWidth="1"/>
-    <col min="11542" max="11542" width="0.7265625" style="1" customWidth="1"/>
-    <col min="11543" max="11543" width="4.1796875" style="1" customWidth="1"/>
-    <col min="11544" max="11782" width="11.453125" style="1"/>
-    <col min="11783" max="11783" width="5.1796875" style="1" customWidth="1"/>
-    <col min="11784" max="11784" width="4.54296875" style="1" customWidth="1"/>
+    <col min="11536" max="11537" width="4.21875" style="1" customWidth="1"/>
+    <col min="11538" max="11538" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11539" max="11539" width="10.44140625" style="1" customWidth="1"/>
+    <col min="11540" max="11540" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11541" max="11541" width="22.21875" style="1" customWidth="1"/>
+    <col min="11542" max="11542" width="0.77734375" style="1" customWidth="1"/>
+    <col min="11543" max="11543" width="4.21875" style="1" customWidth="1"/>
+    <col min="11544" max="11782" width="11.44140625" style="1"/>
+    <col min="11783" max="11783" width="5.21875" style="1" customWidth="1"/>
+    <col min="11784" max="11784" width="4.5546875" style="1" customWidth="1"/>
     <col min="11785" max="11785" width="1" style="1" customWidth="1"/>
-    <col min="11786" max="11786" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11787" max="11787" width="8.453125" style="1" customWidth="1"/>
+    <col min="11786" max="11786" width="4.21875" style="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.44140625" style="1" customWidth="1"/>
     <col min="11788" max="11788" width="1" style="1" customWidth="1"/>
-    <col min="11789" max="11789" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11790" max="11790" width="7.453125" style="1" customWidth="1"/>
+    <col min="11789" max="11789" width="4.21875" style="1" customWidth="1"/>
+    <col min="11790" max="11790" width="7.44140625" style="1" customWidth="1"/>
     <col min="11791" max="11791" width="1" style="1" customWidth="1"/>
-    <col min="11792" max="11793" width="4.26953125" style="1" customWidth="1"/>
-    <col min="11794" max="11794" width="7.7265625" style="1" customWidth="1"/>
-    <col min="11795" max="11795" width="10.453125" style="1" customWidth="1"/>
-    <col min="11796" max="11796" width="12.7265625" style="1" customWidth="1"/>
-    <col min="11797" max="11797" width="22.26953125" style="1" customWidth="1"/>
-    <col min="11798" max="11798" width="0.7265625" style="1" customWidth="1"/>
-    <col min="11799" max="11799" width="4.1796875" style="1" customWidth="1"/>
-    <col min="11800" max="12038" width="11.453125" style="1"/>
-    <col min="12039" max="12039" width="5.1796875" style="1" customWidth="1"/>
-    <col min="12040" max="12040" width="4.54296875" style="1" customWidth="1"/>
+    <col min="11792" max="11793" width="4.21875" style="1" customWidth="1"/>
+    <col min="11794" max="11794" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11795" max="11795" width="10.44140625" style="1" customWidth="1"/>
+    <col min="11796" max="11796" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11797" max="11797" width="22.21875" style="1" customWidth="1"/>
+    <col min="11798" max="11798" width="0.77734375" style="1" customWidth="1"/>
+    <col min="11799" max="11799" width="4.21875" style="1" customWidth="1"/>
+    <col min="11800" max="12038" width="11.44140625" style="1"/>
+    <col min="12039" max="12039" width="5.21875" style="1" customWidth="1"/>
+    <col min="12040" max="12040" width="4.5546875" style="1" customWidth="1"/>
     <col min="12041" max="12041" width="1" style="1" customWidth="1"/>
-    <col min="12042" max="12042" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12043" max="12043" width="8.453125" style="1" customWidth="1"/>
+    <col min="12042" max="12042" width="4.21875" style="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.44140625" style="1" customWidth="1"/>
     <col min="12044" max="12044" width="1" style="1" customWidth="1"/>
-    <col min="12045" max="12045" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12046" max="12046" width="7.453125" style="1" customWidth="1"/>
+    <col min="12045" max="12045" width="4.21875" style="1" customWidth="1"/>
+    <col min="12046" max="12046" width="7.44140625" style="1" customWidth="1"/>
     <col min="12047" max="12047" width="1" style="1" customWidth="1"/>
-    <col min="12048" max="12049" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12050" max="12050" width="7.7265625" style="1" customWidth="1"/>
-    <col min="12051" max="12051" width="10.453125" style="1" customWidth="1"/>
-    <col min="12052" max="12052" width="12.7265625" style="1" customWidth="1"/>
-    <col min="12053" max="12053" width="22.26953125" style="1" customWidth="1"/>
-    <col min="12054" max="12054" width="0.7265625" style="1" customWidth="1"/>
-    <col min="12055" max="12055" width="4.1796875" style="1" customWidth="1"/>
-    <col min="12056" max="12294" width="11.453125" style="1"/>
-    <col min="12295" max="12295" width="5.1796875" style="1" customWidth="1"/>
-    <col min="12296" max="12296" width="4.54296875" style="1" customWidth="1"/>
+    <col min="12048" max="12049" width="4.21875" style="1" customWidth="1"/>
+    <col min="12050" max="12050" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12051" max="12051" width="10.44140625" style="1" customWidth="1"/>
+    <col min="12052" max="12052" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12053" max="12053" width="22.21875" style="1" customWidth="1"/>
+    <col min="12054" max="12054" width="0.77734375" style="1" customWidth="1"/>
+    <col min="12055" max="12055" width="4.21875" style="1" customWidth="1"/>
+    <col min="12056" max="12294" width="11.44140625" style="1"/>
+    <col min="12295" max="12295" width="5.21875" style="1" customWidth="1"/>
+    <col min="12296" max="12296" width="4.5546875" style="1" customWidth="1"/>
     <col min="12297" max="12297" width="1" style="1" customWidth="1"/>
-    <col min="12298" max="12298" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12299" max="12299" width="8.453125" style="1" customWidth="1"/>
+    <col min="12298" max="12298" width="4.21875" style="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.44140625" style="1" customWidth="1"/>
     <col min="12300" max="12300" width="1" style="1" customWidth="1"/>
-    <col min="12301" max="12301" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12302" max="12302" width="7.453125" style="1" customWidth="1"/>
+    <col min="12301" max="12301" width="4.21875" style="1" customWidth="1"/>
+    <col min="12302" max="12302" width="7.44140625" style="1" customWidth="1"/>
     <col min="12303" max="12303" width="1" style="1" customWidth="1"/>
-    <col min="12304" max="12305" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12306" max="12306" width="7.7265625" style="1" customWidth="1"/>
-    <col min="12307" max="12307" width="10.453125" style="1" customWidth="1"/>
-    <col min="12308" max="12308" width="12.7265625" style="1" customWidth="1"/>
-    <col min="12309" max="12309" width="22.26953125" style="1" customWidth="1"/>
-    <col min="12310" max="12310" width="0.7265625" style="1" customWidth="1"/>
-    <col min="12311" max="12311" width="4.1796875" style="1" customWidth="1"/>
-    <col min="12312" max="12550" width="11.453125" style="1"/>
-    <col min="12551" max="12551" width="5.1796875" style="1" customWidth="1"/>
-    <col min="12552" max="12552" width="4.54296875" style="1" customWidth="1"/>
+    <col min="12304" max="12305" width="4.21875" style="1" customWidth="1"/>
+    <col min="12306" max="12306" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12307" max="12307" width="10.44140625" style="1" customWidth="1"/>
+    <col min="12308" max="12308" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12309" max="12309" width="22.21875" style="1" customWidth="1"/>
+    <col min="12310" max="12310" width="0.77734375" style="1" customWidth="1"/>
+    <col min="12311" max="12311" width="4.21875" style="1" customWidth="1"/>
+    <col min="12312" max="12550" width="11.44140625" style="1"/>
+    <col min="12551" max="12551" width="5.21875" style="1" customWidth="1"/>
+    <col min="12552" max="12552" width="4.5546875" style="1" customWidth="1"/>
     <col min="12553" max="12553" width="1" style="1" customWidth="1"/>
-    <col min="12554" max="12554" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12555" max="12555" width="8.453125" style="1" customWidth="1"/>
+    <col min="12554" max="12554" width="4.21875" style="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.44140625" style="1" customWidth="1"/>
     <col min="12556" max="12556" width="1" style="1" customWidth="1"/>
-    <col min="12557" max="12557" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12558" max="12558" width="7.453125" style="1" customWidth="1"/>
+    <col min="12557" max="12557" width="4.21875" style="1" customWidth="1"/>
+    <col min="12558" max="12558" width="7.44140625" style="1" customWidth="1"/>
     <col min="12559" max="12559" width="1" style="1" customWidth="1"/>
-    <col min="12560" max="12561" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12562" max="12562" width="7.7265625" style="1" customWidth="1"/>
-    <col min="12563" max="12563" width="10.453125" style="1" customWidth="1"/>
-    <col min="12564" max="12564" width="12.7265625" style="1" customWidth="1"/>
-    <col min="12565" max="12565" width="22.26953125" style="1" customWidth="1"/>
-    <col min="12566" max="12566" width="0.7265625" style="1" customWidth="1"/>
-    <col min="12567" max="12567" width="4.1796875" style="1" customWidth="1"/>
-    <col min="12568" max="12806" width="11.453125" style="1"/>
-    <col min="12807" max="12807" width="5.1796875" style="1" customWidth="1"/>
-    <col min="12808" max="12808" width="4.54296875" style="1" customWidth="1"/>
+    <col min="12560" max="12561" width="4.21875" style="1" customWidth="1"/>
+    <col min="12562" max="12562" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12563" max="12563" width="10.44140625" style="1" customWidth="1"/>
+    <col min="12564" max="12564" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12565" max="12565" width="22.21875" style="1" customWidth="1"/>
+    <col min="12566" max="12566" width="0.77734375" style="1" customWidth="1"/>
+    <col min="12567" max="12567" width="4.21875" style="1" customWidth="1"/>
+    <col min="12568" max="12806" width="11.44140625" style="1"/>
+    <col min="12807" max="12807" width="5.21875" style="1" customWidth="1"/>
+    <col min="12808" max="12808" width="4.5546875" style="1" customWidth="1"/>
     <col min="12809" max="12809" width="1" style="1" customWidth="1"/>
-    <col min="12810" max="12810" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12811" max="12811" width="8.453125" style="1" customWidth="1"/>
+    <col min="12810" max="12810" width="4.21875" style="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.44140625" style="1" customWidth="1"/>
     <col min="12812" max="12812" width="1" style="1" customWidth="1"/>
-    <col min="12813" max="12813" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12814" max="12814" width="7.453125" style="1" customWidth="1"/>
+    <col min="12813" max="12813" width="4.21875" style="1" customWidth="1"/>
+    <col min="12814" max="12814" width="7.44140625" style="1" customWidth="1"/>
     <col min="12815" max="12815" width="1" style="1" customWidth="1"/>
-    <col min="12816" max="12817" width="4.26953125" style="1" customWidth="1"/>
-    <col min="12818" max="12818" width="7.7265625" style="1" customWidth="1"/>
-    <col min="12819" max="12819" width="10.453125" style="1" customWidth="1"/>
-    <col min="12820" max="12820" width="12.7265625" style="1" customWidth="1"/>
-    <col min="12821" max="12821" width="22.26953125" style="1" customWidth="1"/>
-    <col min="12822" max="12822" width="0.7265625" style="1" customWidth="1"/>
-    <col min="12823" max="12823" width="4.1796875" style="1" customWidth="1"/>
-    <col min="12824" max="13062" width="11.453125" style="1"/>
-    <col min="13063" max="13063" width="5.1796875" style="1" customWidth="1"/>
-    <col min="13064" max="13064" width="4.54296875" style="1" customWidth="1"/>
+    <col min="12816" max="12817" width="4.21875" style="1" customWidth="1"/>
+    <col min="12818" max="12818" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12819" max="12819" width="10.44140625" style="1" customWidth="1"/>
+    <col min="12820" max="12820" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12821" max="12821" width="22.21875" style="1" customWidth="1"/>
+    <col min="12822" max="12822" width="0.77734375" style="1" customWidth="1"/>
+    <col min="12823" max="12823" width="4.21875" style="1" customWidth="1"/>
+    <col min="12824" max="13062" width="11.44140625" style="1"/>
+    <col min="13063" max="13063" width="5.21875" style="1" customWidth="1"/>
+    <col min="13064" max="13064" width="4.5546875" style="1" customWidth="1"/>
     <col min="13065" max="13065" width="1" style="1" customWidth="1"/>
-    <col min="13066" max="13066" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13067" max="13067" width="8.453125" style="1" customWidth="1"/>
+    <col min="13066" max="13066" width="4.21875" style="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.44140625" style="1" customWidth="1"/>
     <col min="13068" max="13068" width="1" style="1" customWidth="1"/>
-    <col min="13069" max="13069" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13070" max="13070" width="7.453125" style="1" customWidth="1"/>
+    <col min="13069" max="13069" width="4.21875" style="1" customWidth="1"/>
+    <col min="13070" max="13070" width="7.44140625" style="1" customWidth="1"/>
     <col min="13071" max="13071" width="1" style="1" customWidth="1"/>
-    <col min="13072" max="13073" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13074" max="13074" width="7.7265625" style="1" customWidth="1"/>
-    <col min="13075" max="13075" width="10.453125" style="1" customWidth="1"/>
-    <col min="13076" max="13076" width="12.7265625" style="1" customWidth="1"/>
-    <col min="13077" max="13077" width="22.26953125" style="1" customWidth="1"/>
-    <col min="13078" max="13078" width="0.7265625" style="1" customWidth="1"/>
-    <col min="13079" max="13079" width="4.1796875" style="1" customWidth="1"/>
-    <col min="13080" max="13318" width="11.453125" style="1"/>
-    <col min="13319" max="13319" width="5.1796875" style="1" customWidth="1"/>
-    <col min="13320" max="13320" width="4.54296875" style="1" customWidth="1"/>
+    <col min="13072" max="13073" width="4.21875" style="1" customWidth="1"/>
+    <col min="13074" max="13074" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13075" max="13075" width="10.44140625" style="1" customWidth="1"/>
+    <col min="13076" max="13076" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13077" max="13077" width="22.21875" style="1" customWidth="1"/>
+    <col min="13078" max="13078" width="0.77734375" style="1" customWidth="1"/>
+    <col min="13079" max="13079" width="4.21875" style="1" customWidth="1"/>
+    <col min="13080" max="13318" width="11.44140625" style="1"/>
+    <col min="13319" max="13319" width="5.21875" style="1" customWidth="1"/>
+    <col min="13320" max="13320" width="4.5546875" style="1" customWidth="1"/>
     <col min="13321" max="13321" width="1" style="1" customWidth="1"/>
-    <col min="13322" max="13322" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13323" max="13323" width="8.453125" style="1" customWidth="1"/>
+    <col min="13322" max="13322" width="4.21875" style="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.44140625" style="1" customWidth="1"/>
     <col min="13324" max="13324" width="1" style="1" customWidth="1"/>
-    <col min="13325" max="13325" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13326" max="13326" width="7.453125" style="1" customWidth="1"/>
+    <col min="13325" max="13325" width="4.21875" style="1" customWidth="1"/>
+    <col min="13326" max="13326" width="7.44140625" style="1" customWidth="1"/>
     <col min="13327" max="13327" width="1" style="1" customWidth="1"/>
-    <col min="13328" max="13329" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13330" max="13330" width="7.7265625" style="1" customWidth="1"/>
-    <col min="13331" max="13331" width="10.453125" style="1" customWidth="1"/>
-    <col min="13332" max="13332" width="12.7265625" style="1" customWidth="1"/>
-    <col min="13333" max="13333" width="22.26953125" style="1" customWidth="1"/>
-    <col min="13334" max="13334" width="0.7265625" style="1" customWidth="1"/>
-    <col min="13335" max="13335" width="4.1796875" style="1" customWidth="1"/>
-    <col min="13336" max="13574" width="11.453125" style="1"/>
-    <col min="13575" max="13575" width="5.1796875" style="1" customWidth="1"/>
-    <col min="13576" max="13576" width="4.54296875" style="1" customWidth="1"/>
+    <col min="13328" max="13329" width="4.21875" style="1" customWidth="1"/>
+    <col min="13330" max="13330" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13331" max="13331" width="10.44140625" style="1" customWidth="1"/>
+    <col min="13332" max="13332" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13333" max="13333" width="22.21875" style="1" customWidth="1"/>
+    <col min="13334" max="13334" width="0.77734375" style="1" customWidth="1"/>
+    <col min="13335" max="13335" width="4.21875" style="1" customWidth="1"/>
+    <col min="13336" max="13574" width="11.44140625" style="1"/>
+    <col min="13575" max="13575" width="5.21875" style="1" customWidth="1"/>
+    <col min="13576" max="13576" width="4.5546875" style="1" customWidth="1"/>
     <col min="13577" max="13577" width="1" style="1" customWidth="1"/>
-    <col min="13578" max="13578" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13579" max="13579" width="8.453125" style="1" customWidth="1"/>
+    <col min="13578" max="13578" width="4.21875" style="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.44140625" style="1" customWidth="1"/>
     <col min="13580" max="13580" width="1" style="1" customWidth="1"/>
-    <col min="13581" max="13581" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13582" max="13582" width="7.453125" style="1" customWidth="1"/>
+    <col min="13581" max="13581" width="4.21875" style="1" customWidth="1"/>
+    <col min="13582" max="13582" width="7.44140625" style="1" customWidth="1"/>
     <col min="13583" max="13583" width="1" style="1" customWidth="1"/>
-    <col min="13584" max="13585" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13586" max="13586" width="7.7265625" style="1" customWidth="1"/>
-    <col min="13587" max="13587" width="10.453125" style="1" customWidth="1"/>
-    <col min="13588" max="13588" width="12.7265625" style="1" customWidth="1"/>
-    <col min="13589" max="13589" width="22.26953125" style="1" customWidth="1"/>
-    <col min="13590" max="13590" width="0.7265625" style="1" customWidth="1"/>
-    <col min="13591" max="13591" width="4.1796875" style="1" customWidth="1"/>
-    <col min="13592" max="13830" width="11.453125" style="1"/>
-    <col min="13831" max="13831" width="5.1796875" style="1" customWidth="1"/>
-    <col min="13832" max="13832" width="4.54296875" style="1" customWidth="1"/>
+    <col min="13584" max="13585" width="4.21875" style="1" customWidth="1"/>
+    <col min="13586" max="13586" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13587" max="13587" width="10.44140625" style="1" customWidth="1"/>
+    <col min="13588" max="13588" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13589" max="13589" width="22.21875" style="1" customWidth="1"/>
+    <col min="13590" max="13590" width="0.77734375" style="1" customWidth="1"/>
+    <col min="13591" max="13591" width="4.21875" style="1" customWidth="1"/>
+    <col min="13592" max="13830" width="11.44140625" style="1"/>
+    <col min="13831" max="13831" width="5.21875" style="1" customWidth="1"/>
+    <col min="13832" max="13832" width="4.5546875" style="1" customWidth="1"/>
     <col min="13833" max="13833" width="1" style="1" customWidth="1"/>
-    <col min="13834" max="13834" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13835" max="13835" width="8.453125" style="1" customWidth="1"/>
+    <col min="13834" max="13834" width="4.21875" style="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.44140625" style="1" customWidth="1"/>
     <col min="13836" max="13836" width="1" style="1" customWidth="1"/>
-    <col min="13837" max="13837" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13838" max="13838" width="7.453125" style="1" customWidth="1"/>
+    <col min="13837" max="13837" width="4.21875" style="1" customWidth="1"/>
+    <col min="13838" max="13838" width="7.44140625" style="1" customWidth="1"/>
     <col min="13839" max="13839" width="1" style="1" customWidth="1"/>
-    <col min="13840" max="13841" width="4.26953125" style="1" customWidth="1"/>
-    <col min="13842" max="13842" width="7.7265625" style="1" customWidth="1"/>
-    <col min="13843" max="13843" width="10.453125" style="1" customWidth="1"/>
-    <col min="13844" max="13844" width="12.7265625" style="1" customWidth="1"/>
-    <col min="13845" max="13845" width="22.26953125" style="1" customWidth="1"/>
-    <col min="13846" max="13846" width="0.7265625" style="1" customWidth="1"/>
-    <col min="13847" max="13847" width="4.1796875" style="1" customWidth="1"/>
-    <col min="13848" max="14086" width="11.453125" style="1"/>
-    <col min="14087" max="14087" width="5.1796875" style="1" customWidth="1"/>
-    <col min="14088" max="14088" width="4.54296875" style="1" customWidth="1"/>
+    <col min="13840" max="13841" width="4.21875" style="1" customWidth="1"/>
+    <col min="13842" max="13842" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13843" max="13843" width="10.44140625" style="1" customWidth="1"/>
+    <col min="13844" max="13844" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13845" max="13845" width="22.21875" style="1" customWidth="1"/>
+    <col min="13846" max="13846" width="0.77734375" style="1" customWidth="1"/>
+    <col min="13847" max="13847" width="4.21875" style="1" customWidth="1"/>
+    <col min="13848" max="14086" width="11.44140625" style="1"/>
+    <col min="14087" max="14087" width="5.21875" style="1" customWidth="1"/>
+    <col min="14088" max="14088" width="4.5546875" style="1" customWidth="1"/>
     <col min="14089" max="14089" width="1" style="1" customWidth="1"/>
-    <col min="14090" max="14090" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14091" max="14091" width="8.453125" style="1" customWidth="1"/>
+    <col min="14090" max="14090" width="4.21875" style="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.44140625" style="1" customWidth="1"/>
     <col min="14092" max="14092" width="1" style="1" customWidth="1"/>
-    <col min="14093" max="14093" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14094" max="14094" width="7.453125" style="1" customWidth="1"/>
+    <col min="14093" max="14093" width="4.21875" style="1" customWidth="1"/>
+    <col min="14094" max="14094" width="7.44140625" style="1" customWidth="1"/>
     <col min="14095" max="14095" width="1" style="1" customWidth="1"/>
-    <col min="14096" max="14097" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14098" max="14098" width="7.7265625" style="1" customWidth="1"/>
-    <col min="14099" max="14099" width="10.453125" style="1" customWidth="1"/>
-    <col min="14100" max="14100" width="12.7265625" style="1" customWidth="1"/>
-    <col min="14101" max="14101" width="22.26953125" style="1" customWidth="1"/>
-    <col min="14102" max="14102" width="0.7265625" style="1" customWidth="1"/>
-    <col min="14103" max="14103" width="4.1796875" style="1" customWidth="1"/>
-    <col min="14104" max="14342" width="11.453125" style="1"/>
-    <col min="14343" max="14343" width="5.1796875" style="1" customWidth="1"/>
-    <col min="14344" max="14344" width="4.54296875" style="1" customWidth="1"/>
+    <col min="14096" max="14097" width="4.21875" style="1" customWidth="1"/>
+    <col min="14098" max="14098" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14099" max="14099" width="10.44140625" style="1" customWidth="1"/>
+    <col min="14100" max="14100" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14101" max="14101" width="22.21875" style="1" customWidth="1"/>
+    <col min="14102" max="14102" width="0.77734375" style="1" customWidth="1"/>
+    <col min="14103" max="14103" width="4.21875" style="1" customWidth="1"/>
+    <col min="14104" max="14342" width="11.44140625" style="1"/>
+    <col min="14343" max="14343" width="5.21875" style="1" customWidth="1"/>
+    <col min="14344" max="14344" width="4.5546875" style="1" customWidth="1"/>
     <col min="14345" max="14345" width="1" style="1" customWidth="1"/>
-    <col min="14346" max="14346" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14347" max="14347" width="8.453125" style="1" customWidth="1"/>
+    <col min="14346" max="14346" width="4.21875" style="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.44140625" style="1" customWidth="1"/>
     <col min="14348" max="14348" width="1" style="1" customWidth="1"/>
-    <col min="14349" max="14349" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14350" max="14350" width="7.453125" style="1" customWidth="1"/>
+    <col min="14349" max="14349" width="4.21875" style="1" customWidth="1"/>
+    <col min="14350" max="14350" width="7.44140625" style="1" customWidth="1"/>
     <col min="14351" max="14351" width="1" style="1" customWidth="1"/>
-    <col min="14352" max="14353" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14354" max="14354" width="7.7265625" style="1" customWidth="1"/>
-    <col min="14355" max="14355" width="10.453125" style="1" customWidth="1"/>
-    <col min="14356" max="14356" width="12.7265625" style="1" customWidth="1"/>
-    <col min="14357" max="14357" width="22.26953125" style="1" customWidth="1"/>
-    <col min="14358" max="14358" width="0.7265625" style="1" customWidth="1"/>
-    <col min="14359" max="14359" width="4.1796875" style="1" customWidth="1"/>
-    <col min="14360" max="14598" width="11.453125" style="1"/>
-    <col min="14599" max="14599" width="5.1796875" style="1" customWidth="1"/>
-    <col min="14600" max="14600" width="4.54296875" style="1" customWidth="1"/>
+    <col min="14352" max="14353" width="4.21875" style="1" customWidth="1"/>
+    <col min="14354" max="14354" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14355" max="14355" width="10.44140625" style="1" customWidth="1"/>
+    <col min="14356" max="14356" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14357" max="14357" width="22.21875" style="1" customWidth="1"/>
+    <col min="14358" max="14358" width="0.77734375" style="1" customWidth="1"/>
+    <col min="14359" max="14359" width="4.21875" style="1" customWidth="1"/>
+    <col min="14360" max="14598" width="11.44140625" style="1"/>
+    <col min="14599" max="14599" width="5.21875" style="1" customWidth="1"/>
+    <col min="14600" max="14600" width="4.5546875" style="1" customWidth="1"/>
     <col min="14601" max="14601" width="1" style="1" customWidth="1"/>
-    <col min="14602" max="14602" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14603" max="14603" width="8.453125" style="1" customWidth="1"/>
+    <col min="14602" max="14602" width="4.21875" style="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.44140625" style="1" customWidth="1"/>
     <col min="14604" max="14604" width="1" style="1" customWidth="1"/>
-    <col min="14605" max="14605" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14606" max="14606" width="7.453125" style="1" customWidth="1"/>
+    <col min="14605" max="14605" width="4.21875" style="1" customWidth="1"/>
+    <col min="14606" max="14606" width="7.44140625" style="1" customWidth="1"/>
     <col min="14607" max="14607" width="1" style="1" customWidth="1"/>
-    <col min="14608" max="14609" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14610" max="14610" width="7.7265625" style="1" customWidth="1"/>
-    <col min="14611" max="14611" width="10.453125" style="1" customWidth="1"/>
-    <col min="14612" max="14612" width="12.7265625" style="1" customWidth="1"/>
-    <col min="14613" max="14613" width="22.26953125" style="1" customWidth="1"/>
-    <col min="14614" max="14614" width="0.7265625" style="1" customWidth="1"/>
-    <col min="14615" max="14615" width="4.1796875" style="1" customWidth="1"/>
-    <col min="14616" max="14854" width="11.453125" style="1"/>
-    <col min="14855" max="14855" width="5.1796875" style="1" customWidth="1"/>
-    <col min="14856" max="14856" width="4.54296875" style="1" customWidth="1"/>
+    <col min="14608" max="14609" width="4.21875" style="1" customWidth="1"/>
+    <col min="14610" max="14610" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14611" max="14611" width="10.44140625" style="1" customWidth="1"/>
+    <col min="14612" max="14612" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14613" max="14613" width="22.21875" style="1" customWidth="1"/>
+    <col min="14614" max="14614" width="0.77734375" style="1" customWidth="1"/>
+    <col min="14615" max="14615" width="4.21875" style="1" customWidth="1"/>
+    <col min="14616" max="14854" width="11.44140625" style="1"/>
+    <col min="14855" max="14855" width="5.21875" style="1" customWidth="1"/>
+    <col min="14856" max="14856" width="4.5546875" style="1" customWidth="1"/>
     <col min="14857" max="14857" width="1" style="1" customWidth="1"/>
-    <col min="14858" max="14858" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14859" max="14859" width="8.453125" style="1" customWidth="1"/>
+    <col min="14858" max="14858" width="4.21875" style="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.44140625" style="1" customWidth="1"/>
     <col min="14860" max="14860" width="1" style="1" customWidth="1"/>
-    <col min="14861" max="14861" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14862" max="14862" width="7.453125" style="1" customWidth="1"/>
+    <col min="14861" max="14861" width="4.21875" style="1" customWidth="1"/>
+    <col min="14862" max="14862" width="7.44140625" style="1" customWidth="1"/>
     <col min="14863" max="14863" width="1" style="1" customWidth="1"/>
-    <col min="14864" max="14865" width="4.26953125" style="1" customWidth="1"/>
-    <col min="14866" max="14866" width="7.7265625" style="1" customWidth="1"/>
-    <col min="14867" max="14867" width="10.453125" style="1" customWidth="1"/>
-    <col min="14868" max="14868" width="12.7265625" style="1" customWidth="1"/>
-    <col min="14869" max="14869" width="22.26953125" style="1" customWidth="1"/>
-    <col min="14870" max="14870" width="0.7265625" style="1" customWidth="1"/>
-    <col min="14871" max="14871" width="4.1796875" style="1" customWidth="1"/>
-    <col min="14872" max="15110" width="11.453125" style="1"/>
-    <col min="15111" max="15111" width="5.1796875" style="1" customWidth="1"/>
-    <col min="15112" max="15112" width="4.54296875" style="1" customWidth="1"/>
+    <col min="14864" max="14865" width="4.21875" style="1" customWidth="1"/>
+    <col min="14866" max="14866" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14867" max="14867" width="10.44140625" style="1" customWidth="1"/>
+    <col min="14868" max="14868" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14869" max="14869" width="22.21875" style="1" customWidth="1"/>
+    <col min="14870" max="14870" width="0.77734375" style="1" customWidth="1"/>
+    <col min="14871" max="14871" width="4.21875" style="1" customWidth="1"/>
+    <col min="14872" max="15110" width="11.44140625" style="1"/>
+    <col min="15111" max="15111" width="5.21875" style="1" customWidth="1"/>
+    <col min="15112" max="15112" width="4.5546875" style="1" customWidth="1"/>
     <col min="15113" max="15113" width="1" style="1" customWidth="1"/>
-    <col min="15114" max="15114" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15115" max="15115" width="8.453125" style="1" customWidth="1"/>
+    <col min="15114" max="15114" width="4.21875" style="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.44140625" style="1" customWidth="1"/>
     <col min="15116" max="15116" width="1" style="1" customWidth="1"/>
-    <col min="15117" max="15117" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15118" max="15118" width="7.453125" style="1" customWidth="1"/>
+    <col min="15117" max="15117" width="4.21875" style="1" customWidth="1"/>
+    <col min="15118" max="15118" width="7.44140625" style="1" customWidth="1"/>
     <col min="15119" max="15119" width="1" style="1" customWidth="1"/>
-    <col min="15120" max="15121" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15122" max="15122" width="7.7265625" style="1" customWidth="1"/>
-    <col min="15123" max="15123" width="10.453125" style="1" customWidth="1"/>
-    <col min="15124" max="15124" width="12.7265625" style="1" customWidth="1"/>
-    <col min="15125" max="15125" width="22.26953125" style="1" customWidth="1"/>
-    <col min="15126" max="15126" width="0.7265625" style="1" customWidth="1"/>
-    <col min="15127" max="15127" width="4.1796875" style="1" customWidth="1"/>
-    <col min="15128" max="15366" width="11.453125" style="1"/>
-    <col min="15367" max="15367" width="5.1796875" style="1" customWidth="1"/>
-    <col min="15368" max="15368" width="4.54296875" style="1" customWidth="1"/>
+    <col min="15120" max="15121" width="4.21875" style="1" customWidth="1"/>
+    <col min="15122" max="15122" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15123" max="15123" width="10.44140625" style="1" customWidth="1"/>
+    <col min="15124" max="15124" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15125" max="15125" width="22.21875" style="1" customWidth="1"/>
+    <col min="15126" max="15126" width="0.77734375" style="1" customWidth="1"/>
+    <col min="15127" max="15127" width="4.21875" style="1" customWidth="1"/>
+    <col min="15128" max="15366" width="11.44140625" style="1"/>
+    <col min="15367" max="15367" width="5.21875" style="1" customWidth="1"/>
+    <col min="15368" max="15368" width="4.5546875" style="1" customWidth="1"/>
     <col min="15369" max="15369" width="1" style="1" customWidth="1"/>
-    <col min="15370" max="15370" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15371" max="15371" width="8.453125" style="1" customWidth="1"/>
+    <col min="15370" max="15370" width="4.21875" style="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.44140625" style="1" customWidth="1"/>
     <col min="15372" max="15372" width="1" style="1" customWidth="1"/>
-    <col min="15373" max="15373" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15374" max="15374" width="7.453125" style="1" customWidth="1"/>
+    <col min="15373" max="15373" width="4.21875" style="1" customWidth="1"/>
+    <col min="15374" max="15374" width="7.44140625" style="1" customWidth="1"/>
     <col min="15375" max="15375" width="1" style="1" customWidth="1"/>
-    <col min="15376" max="15377" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15378" max="15378" width="7.7265625" style="1" customWidth="1"/>
-    <col min="15379" max="15379" width="10.453125" style="1" customWidth="1"/>
-    <col min="15380" max="15380" width="12.7265625" style="1" customWidth="1"/>
-    <col min="15381" max="15381" width="22.26953125" style="1" customWidth="1"/>
-    <col min="15382" max="15382" width="0.7265625" style="1" customWidth="1"/>
-    <col min="15383" max="15383" width="4.1796875" style="1" customWidth="1"/>
-    <col min="15384" max="15622" width="11.453125" style="1"/>
-    <col min="15623" max="15623" width="5.1796875" style="1" customWidth="1"/>
-    <col min="15624" max="15624" width="4.54296875" style="1" customWidth="1"/>
+    <col min="15376" max="15377" width="4.21875" style="1" customWidth="1"/>
+    <col min="15378" max="15378" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15379" max="15379" width="10.44140625" style="1" customWidth="1"/>
+    <col min="15380" max="15380" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15381" max="15381" width="22.21875" style="1" customWidth="1"/>
+    <col min="15382" max="15382" width="0.77734375" style="1" customWidth="1"/>
+    <col min="15383" max="15383" width="4.21875" style="1" customWidth="1"/>
+    <col min="15384" max="15622" width="11.44140625" style="1"/>
+    <col min="15623" max="15623" width="5.21875" style="1" customWidth="1"/>
+    <col min="15624" max="15624" width="4.5546875" style="1" customWidth="1"/>
     <col min="15625" max="15625" width="1" style="1" customWidth="1"/>
-    <col min="15626" max="15626" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15627" max="15627" width="8.453125" style="1" customWidth="1"/>
+    <col min="15626" max="15626" width="4.21875" style="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.44140625" style="1" customWidth="1"/>
     <col min="15628" max="15628" width="1" style="1" customWidth="1"/>
-    <col min="15629" max="15629" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15630" max="15630" width="7.453125" style="1" customWidth="1"/>
+    <col min="15629" max="15629" width="4.21875" style="1" customWidth="1"/>
+    <col min="15630" max="15630" width="7.44140625" style="1" customWidth="1"/>
     <col min="15631" max="15631" width="1" style="1" customWidth="1"/>
-    <col min="15632" max="15633" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15634" max="15634" width="7.7265625" style="1" customWidth="1"/>
-    <col min="15635" max="15635" width="10.453125" style="1" customWidth="1"/>
-    <col min="15636" max="15636" width="12.7265625" style="1" customWidth="1"/>
-    <col min="15637" max="15637" width="22.26953125" style="1" customWidth="1"/>
-    <col min="15638" max="15638" width="0.7265625" style="1" customWidth="1"/>
-    <col min="15639" max="15639" width="4.1796875" style="1" customWidth="1"/>
-    <col min="15640" max="15878" width="11.453125" style="1"/>
-    <col min="15879" max="15879" width="5.1796875" style="1" customWidth="1"/>
-    <col min="15880" max="15880" width="4.54296875" style="1" customWidth="1"/>
+    <col min="15632" max="15633" width="4.21875" style="1" customWidth="1"/>
+    <col min="15634" max="15634" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15635" max="15635" width="10.44140625" style="1" customWidth="1"/>
+    <col min="15636" max="15636" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15637" max="15637" width="22.21875" style="1" customWidth="1"/>
+    <col min="15638" max="15638" width="0.77734375" style="1" customWidth="1"/>
+    <col min="15639" max="15639" width="4.21875" style="1" customWidth="1"/>
+    <col min="15640" max="15878" width="11.44140625" style="1"/>
+    <col min="15879" max="15879" width="5.21875" style="1" customWidth="1"/>
+    <col min="15880" max="15880" width="4.5546875" style="1" customWidth="1"/>
     <col min="15881" max="15881" width="1" style="1" customWidth="1"/>
-    <col min="15882" max="15882" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15883" max="15883" width="8.453125" style="1" customWidth="1"/>
+    <col min="15882" max="15882" width="4.21875" style="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.44140625" style="1" customWidth="1"/>
     <col min="15884" max="15884" width="1" style="1" customWidth="1"/>
-    <col min="15885" max="15885" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15886" max="15886" width="7.453125" style="1" customWidth="1"/>
+    <col min="15885" max="15885" width="4.21875" style="1" customWidth="1"/>
+    <col min="15886" max="15886" width="7.44140625" style="1" customWidth="1"/>
     <col min="15887" max="15887" width="1" style="1" customWidth="1"/>
-    <col min="15888" max="15889" width="4.26953125" style="1" customWidth="1"/>
-    <col min="15890" max="15890" width="7.7265625" style="1" customWidth="1"/>
-    <col min="15891" max="15891" width="10.453125" style="1" customWidth="1"/>
-    <col min="15892" max="15892" width="12.7265625" style="1" customWidth="1"/>
-    <col min="15893" max="15893" width="22.26953125" style="1" customWidth="1"/>
-    <col min="15894" max="15894" width="0.7265625" style="1" customWidth="1"/>
-    <col min="15895" max="15895" width="4.1796875" style="1" customWidth="1"/>
-    <col min="15896" max="16134" width="11.453125" style="1"/>
-    <col min="16135" max="16135" width="5.1796875" style="1" customWidth="1"/>
-    <col min="16136" max="16136" width="4.54296875" style="1" customWidth="1"/>
+    <col min="15888" max="15889" width="4.21875" style="1" customWidth="1"/>
+    <col min="15890" max="15890" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15891" max="15891" width="10.44140625" style="1" customWidth="1"/>
+    <col min="15892" max="15892" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15893" max="15893" width="22.21875" style="1" customWidth="1"/>
+    <col min="15894" max="15894" width="0.77734375" style="1" customWidth="1"/>
+    <col min="15895" max="15895" width="4.21875" style="1" customWidth="1"/>
+    <col min="15896" max="16134" width="11.44140625" style="1"/>
+    <col min="16135" max="16135" width="5.21875" style="1" customWidth="1"/>
+    <col min="16136" max="16136" width="4.5546875" style="1" customWidth="1"/>
     <col min="16137" max="16137" width="1" style="1" customWidth="1"/>
-    <col min="16138" max="16138" width="4.26953125" style="1" customWidth="1"/>
-    <col min="16139" max="16139" width="8.453125" style="1" customWidth="1"/>
+    <col min="16138" max="16138" width="4.21875" style="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.44140625" style="1" customWidth="1"/>
     <col min="16140" max="16140" width="1" style="1" customWidth="1"/>
-    <col min="16141" max="16141" width="4.26953125" style="1" customWidth="1"/>
-    <col min="16142" max="16142" width="7.453125" style="1" customWidth="1"/>
+    <col min="16141" max="16141" width="4.21875" style="1" customWidth="1"/>
+    <col min="16142" max="16142" width="7.44140625" style="1" customWidth="1"/>
     <col min="16143" max="16143" width="1" style="1" customWidth="1"/>
-    <col min="16144" max="16145" width="4.26953125" style="1" customWidth="1"/>
-    <col min="16146" max="16146" width="7.7265625" style="1" customWidth="1"/>
-    <col min="16147" max="16147" width="10.453125" style="1" customWidth="1"/>
-    <col min="16148" max="16148" width="12.7265625" style="1" customWidth="1"/>
-    <col min="16149" max="16149" width="22.26953125" style="1" customWidth="1"/>
-    <col min="16150" max="16150" width="0.7265625" style="1" customWidth="1"/>
-    <col min="16151" max="16151" width="4.1796875" style="1" customWidth="1"/>
-    <col min="16152" max="16384" width="11.453125" style="1"/>
+    <col min="16144" max="16145" width="4.21875" style="1" customWidth="1"/>
+    <col min="16146" max="16146" width="7.77734375" style="1" customWidth="1"/>
+    <col min="16147" max="16147" width="10.44140625" style="1" customWidth="1"/>
+    <col min="16148" max="16148" width="12.77734375" style="1" customWidth="1"/>
+    <col min="16149" max="16149" width="22.21875" style="1" customWidth="1"/>
+    <col min="16150" max="16150" width="0.77734375" style="1" customWidth="1"/>
+    <col min="16151" max="16151" width="4.21875" style="1" customWidth="1"/>
+    <col min="16152" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
     </row>
     <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="S2" s="35" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="S2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
     </row>
     <row r="3" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -2207,7 +2207,7 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
     </row>
-    <row r="4" spans="1:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>18</v>
       </c>
@@ -2233,15 +2233,15 @@
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="9"/>
-      <c r="S4" s="44" t="s">
+      <c r="S4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
       <c r="V4" s="3"/>
       <c r="W4" s="12"/>
     </row>
-    <row r="5" spans="1:23" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="14"/>
       <c r="C5" s="3"/>
@@ -2257,7 +2257,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>19</v>
       </c>
@@ -2278,15 +2278,15 @@
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="9"/>
-      <c r="S6" s="44" t="s">
+      <c r="S6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
       <c r="V6" s="5"/>
       <c r="W6" s="12"/>
     </row>
-    <row r="7" spans="1:23" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="4.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="14"/>
       <c r="C7" s="2"/>
@@ -2297,7 +2297,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>20</v>
       </c>
@@ -2342,32 +2342,32 @@
       <c r="I10" s="6"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:23" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+    <row r="11" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="41"/>
     </row>
     <row r="12" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -2385,310 +2385,310 @@
       <c r="A13" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="22" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="24"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="56" t="s">
         <v>11</v>
       </c>
       <c r="O13" s="57"/>
       <c r="P13" s="58"/>
-      <c r="Q13" s="41" t="s">
+      <c r="Q13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="R13" s="41"/>
-      <c r="S13" s="22" t="s">
+      <c r="R13" s="45"/>
+      <c r="S13" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="T13" s="24"/>
-      <c r="U13" s="41" t="s">
+      <c r="T13" s="43"/>
+      <c r="U13" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
     </row>
     <row r="14" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="49"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="27"/>
     </row>
     <row r="15" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="49"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="27"/>
     </row>
     <row r="16" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>3</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="49"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="27"/>
     </row>
     <row r="17" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>4</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="49"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="27"/>
     </row>
     <row r="18" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>5</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="49"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="27"/>
     </row>
     <row r="19" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>6</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="49"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="27"/>
     </row>
     <row r="20" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>7</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="49"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="27"/>
     </row>
     <row r="21" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>8</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="49"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="27"/>
     </row>
     <row r="22" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>9</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="49"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="27"/>
     </row>
     <row r="23" spans="1:24" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>10</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="49"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="27"/>
     </row>
     <row r="24" spans="1:24" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
@@ -2702,60 +2702,60 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:24" ht="59.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+    <row r="25" spans="1:24" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="T25" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="T25" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="52"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="30"/>
     </row>
     <row r="26" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
       <c r="J26" s="10"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
       <c r="S26" s="11"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="55"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="33"/>
     </row>
     <row r="27" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -2780,10 +2780,10 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="V28" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="W28" s="46"/>
+      <c r="V28" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="W28" s="24"/>
       <c r="X28" s="7"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -3328,17 +3328,57 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="K25:R26"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:W1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="A2:K2"/>
     <mergeCell ref="V28:W28"/>
     <mergeCell ref="U15:W15"/>
     <mergeCell ref="U16:W16"/>
@@ -3355,59 +3395,19 @@
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="S19:T19"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:W1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="K25:R26"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="G22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="N19:P19"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="N21:P21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.12" right="0.14000000000000001" top="0.32" bottom="0.17" header="0.31496062992125984" footer="0.19"/>
@@ -3424,13 +3424,13 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>50800</xdr:rowOff>
+                <xdr:rowOff>53340</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>679450</xdr:rowOff>
+                <xdr:rowOff>678180</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
